--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206119.883204039</v>
+        <v>203631.0103933044</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.2204013002516</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5233981958436</v>
+        <v>326.7594514077785</v>
       </c>
       <c r="D11" t="n">
-        <v>316.169601257454</v>
+        <v>316.1696012574539</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4169297090328</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>368.3626053784825</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>372.6330561788417</v>
+        <v>372.6330561788416</v>
       </c>
       <c r="H11" t="n">
-        <v>258.3962588871428</v>
+        <v>258.3962588871427</v>
       </c>
       <c r="I11" t="n">
-        <v>11.72896909311287</v>
+        <v>11.72896909311288</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>75.7962880493121</v>
+        <v>75.79628804931204</v>
       </c>
       <c r="T11" t="n">
-        <v>166.3884643413132</v>
+        <v>166.388464341313</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>212.4997132667623</v>
       </c>
       <c r="V11" t="n">
-        <v>289.238818106906</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W11" t="n">
-        <v>310.7275283541841</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>331.21766031524</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>289.0465095938266</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>167.7780886227951</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>108.9316252014097</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5557720301548</v>
       </c>
       <c r="G12" t="n">
-        <v>135.1197321935187</v>
+        <v>96.60629183028965</v>
       </c>
       <c r="H12" t="n">
-        <v>90.75836308184009</v>
+        <v>52.24492271861105</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.95785363122053</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.609766986073197</v>
       </c>
       <c r="S12" t="n">
-        <v>91.86390027286608</v>
+        <v>130.377340636095</v>
       </c>
       <c r="T12" t="n">
-        <v>152.6878743528782</v>
+        <v>152.6878743528781</v>
       </c>
       <c r="U12" t="n">
         <v>225.7950804382319</v>
       </c>
       <c r="V12" t="n">
-        <v>194.2871467861963</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>213.1815427976907</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>192.8967550920225</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.3185398187084</v>
+        <v>141.3185398187082</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>128.7333807353988</v>
       </c>
       <c r="D13" t="n">
-        <v>110.1020326549834</v>
+        <v>110.1020326549833</v>
       </c>
       <c r="E13" t="n">
-        <v>107.9205222833402</v>
+        <v>107.9205222833401</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9076076597023</v>
+        <v>92.07544932296732</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6131923784188</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.1379958601997</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.87104721483899</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.95214767987301</v>
+        <v>54.95214767987297</v>
       </c>
       <c r="S13" t="n">
-        <v>151.3628806584807</v>
+        <v>153.0126807244089</v>
       </c>
       <c r="T13" t="n">
-        <v>181.4663044295872</v>
+        <v>181.4663044295871</v>
       </c>
       <c r="U13" t="n">
-        <v>247.7038973596177</v>
+        <v>247.7038973596176</v>
       </c>
       <c r="V13" t="n">
-        <v>213.6242029605991</v>
+        <v>213.624202960599</v>
       </c>
       <c r="W13" t="n">
-        <v>248.0095579733621</v>
+        <v>248.009557973362</v>
       </c>
       <c r="X13" t="n">
-        <v>187.1962150258082</v>
+        <v>187.1962150258081</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>180.0712129888657</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002519</v>
+        <v>257.4916125584549</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077788</v>
+        <v>326.7594514077785</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>272.7246786441426</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.633056178842</v>
+        <v>372.6330561788416</v>
       </c>
       <c r="H14" t="n">
-        <v>258.396258887143</v>
+        <v>258.3962588871427</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.72896909311288</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.7962880493123</v>
+        <v>75.79628804931204</v>
       </c>
       <c r="T14" t="n">
-        <v>166.3884643413134</v>
+        <v>166.388464341313</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4997132667626</v>
+        <v>212.4997132667623</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069062</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541843</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X14" t="n">
-        <v>331.2176603152403</v>
+        <v>331.21766031524</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>347.7244982928245</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>128.0197432866383</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1316400921719</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5557720301548</v>
       </c>
       <c r="G15" t="n">
-        <v>96.60629183028996</v>
+        <v>130.1893218279982</v>
       </c>
       <c r="H15" t="n">
-        <v>90.75836308184009</v>
+        <v>90.7583630818401</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.95785363122053</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.609766986073197</v>
       </c>
       <c r="S15" t="n">
         <v>130.377340636095</v>
@@ -1740,19 +1740,19 @@
         <v>191.2013147161072</v>
       </c>
       <c r="U15" t="n">
-        <v>187.2816400750032</v>
+        <v>225.7950804382319</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2871467861965</v>
+        <v>194.2871467861962</v>
       </c>
       <c r="W15" t="n">
-        <v>213.1815427976909</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>167.2595448402484</v>
       </c>
       <c r="Y15" t="n">
-        <v>192.8064656658491</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187086</v>
+        <v>141.3185398187082</v>
       </c>
       <c r="C16" t="n">
-        <v>128.7333807353991</v>
+        <v>128.7333807353988</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549836</v>
+        <v>110.1020326549833</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833404</v>
+        <v>107.9205222833401</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597025</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.613192378419</v>
+        <v>127.6131923784187</v>
       </c>
       <c r="H16" t="n">
-        <v>107.1379958601999</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.41440462442126</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.95214767987323</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.0126807244092</v>
+        <v>153.0126807244089</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4663044295874</v>
+        <v>181.4663044295871</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>247.7038973596176</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605993</v>
+        <v>213.624202960599</v>
       </c>
       <c r="W16" t="n">
-        <v>246.1301087576209</v>
+        <v>248.009557973362</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258084</v>
+        <v>187.1962150258081</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0712129888661</v>
+        <v>180.0712129888657</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G17" t="n">
-        <v>313.4617763139657</v>
+        <v>38.91073842857924</v>
       </c>
       <c r="H17" t="n">
-        <v>199.2249790222668</v>
+        <v>199.2249790222666</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.62500818443607</v>
+        <v>16.62500818443601</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>107.217184476437</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3284334018864</v>
+        <v>153.3284334018863</v>
       </c>
       <c r="V17" t="n">
-        <v>62.73368483308059</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W17" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X17" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>68.84846342176226</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>55.24194059715315</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>59.96036022729587</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>142.9410406679283</v>
       </c>
       <c r="G18" t="n">
         <v>135.1197321935187</v>
       </c>
       <c r="H18" t="n">
-        <v>90.75836308184009</v>
+        <v>90.7583630818401</v>
       </c>
       <c r="I18" t="n">
-        <v>22.95785363122047</v>
+        <v>22.95785363122053</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.609766986073197</v>
       </c>
       <c r="S18" t="n">
         <v>130.377340636095</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>108.0882649753725</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G19" t="n">
-        <v>68.44191251354275</v>
+        <v>68.44191251354263</v>
       </c>
       <c r="H19" t="n">
-        <v>47.96671599532367</v>
+        <v>47.96671599532357</v>
       </c>
       <c r="I19" t="n">
-        <v>1.699767349962961</v>
+        <v>1.699767349962883</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.841400859533</v>
+        <v>93.84140085953291</v>
       </c>
       <c r="T19" t="n">
-        <v>122.2950245647112</v>
+        <v>122.295024564711</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5326174947417</v>
+        <v>188.5326174947416</v>
       </c>
       <c r="V19" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W19" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D20" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>34.64028762821977</v>
       </c>
       <c r="G20" t="n">
-        <v>38.91073842857918</v>
+        <v>313.4617763139656</v>
       </c>
       <c r="H20" t="n">
-        <v>199.2249790222668</v>
+        <v>199.2249790222666</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.62500818443608</v>
+        <v>16.62500818443601</v>
       </c>
       <c r="T20" t="n">
-        <v>107.2171844764371</v>
+        <v>107.217184476437</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3284334018864</v>
+        <v>153.3284334018863</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>95.8534606659756</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,13 +2169,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>47.3844921652788</v>
       </c>
       <c r="G21" t="n">
         <v>135.1197321935187</v>
       </c>
       <c r="H21" t="n">
-        <v>90.75836308184009</v>
+        <v>90.7583630818401</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.609766986073197</v>
       </c>
       <c r="S21" t="n">
         <v>130.377340636095</v>
       </c>
       <c r="T21" t="n">
-        <v>93.5165944880022</v>
+        <v>191.2013147161072</v>
       </c>
       <c r="U21" t="n">
         <v>225.7950804382319</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>136.4374244410385</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G22" t="n">
-        <v>68.44191251354275</v>
+        <v>68.44191251354263</v>
       </c>
       <c r="H22" t="n">
-        <v>47.96671599532367</v>
+        <v>47.96671599532357</v>
       </c>
       <c r="I22" t="n">
-        <v>1.699767349962968</v>
+        <v>1.699767349962883</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.841400859533</v>
+        <v>93.84140085953291</v>
       </c>
       <c r="T22" t="n">
-        <v>122.2950245647112</v>
+        <v>122.295024564711</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5326174947417</v>
+        <v>188.5326174947416</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609184</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092315</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C26" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D26" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558069</v>
       </c>
       <c r="E26" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F26" t="n">
         <v>347.7047658768354</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885774</v>
       </c>
       <c r="H26" t="n">
         <v>235.4364845224444</v>
@@ -2612,7 +2612,7 @@
         <v>191.823892094026</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W26" t="n">
         <v>290.069688852537</v>
@@ -2621,7 +2621,7 @@
         <v>310.559820813593</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883147</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>85.58373504944475</v>
       </c>
       <c r="I28" t="n">
-        <v>37.18114054496207</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.7608728051713</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S28" t="n">
         <v>130.5977454665659</v>
@@ -2792,7 +2792,7 @@
         <v>323.5625617986045</v>
       </c>
       <c r="C29" t="n">
-        <v>306.1016119061314</v>
+        <v>306.1016119061315</v>
       </c>
       <c r="D29" t="n">
         <v>295.5117617558069</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329976</v>
+        <v>50.01648192329982</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
       </c>
       <c r="U29" t="n">
-        <v>191.8238920940259</v>
+        <v>191.823892094026</v>
       </c>
       <c r="V29" t="n">
         <v>268.5809786052588</v>
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851022</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.6607003170612</v>
+        <v>120.6607003170613</v>
       </c>
       <c r="C31" t="n">
-        <v>108.0755412337517</v>
+        <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333627</v>
+        <v>89.44419315333633</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169309</v>
+        <v>87.26268278169314</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805516</v>
+        <v>86.24976815805522</v>
       </c>
       <c r="G31" t="n">
-        <v>106.8545283941521</v>
+        <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.5837350494447</v>
+        <v>85.58373504944475</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496203</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517126</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S31" t="n">
-        <v>130.5977454665658</v>
+        <v>130.5977454665659</v>
       </c>
       <c r="T31" t="n">
-        <v>160.3776694112931</v>
+        <v>160.3776694112932</v>
       </c>
       <c r="U31" t="n">
         <v>227.0405583407368</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9663634589519</v>
+        <v>192.966363458952</v>
       </c>
       <c r="W31" t="n">
-        <v>227.3517184717149</v>
+        <v>227.351718471715</v>
       </c>
       <c r="X31" t="n">
         <v>166.5383755241611</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.4133734872187</v>
+        <v>159.4133734872188</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>323.5625617986046</v>
+        <v>323.5625617986045</v>
       </c>
       <c r="C32" t="n">
-        <v>306.1016119061316</v>
+        <v>306.1016119061314</v>
       </c>
       <c r="D32" t="n">
-        <v>295.511761755807</v>
+        <v>295.5117617558068</v>
       </c>
       <c r="E32" t="n">
-        <v>322.7590902073858</v>
+        <v>322.7590902073857</v>
       </c>
       <c r="F32" t="n">
-        <v>347.7047658768354</v>
+        <v>347.7047658768353</v>
       </c>
       <c r="G32" t="n">
-        <v>351.7504457885775</v>
+        <v>351.7504457885773</v>
       </c>
       <c r="H32" t="n">
-        <v>235.4364845224445</v>
+        <v>235.4364845224443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329976</v>
       </c>
       <c r="T32" t="n">
-        <v>144.7466902747442</v>
+        <v>144.7466902747441</v>
       </c>
       <c r="U32" t="n">
-        <v>191.823892094026</v>
+        <v>191.8238920940259</v>
       </c>
       <c r="V32" t="n">
-        <v>268.5809786052589</v>
+        <v>268.5809786052588</v>
       </c>
       <c r="W32" t="n">
-        <v>290.069688852537</v>
+        <v>290.0696888525369</v>
       </c>
       <c r="X32" t="n">
-        <v>310.559820813593</v>
+        <v>310.5598208135929</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.0666587911776</v>
+        <v>327.0666587911775</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247651</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.6607003170613</v>
+        <v>120.6607003170612</v>
       </c>
       <c r="C34" t="n">
-        <v>108.0755412337518</v>
+        <v>108.0755412337517</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333626</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169307</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805515</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8545283941522</v>
+        <v>106.8545283941521</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944478</v>
+        <v>85.58373504944468</v>
       </c>
       <c r="I34" t="n">
-        <v>37.18114054496211</v>
+        <v>37.18114054496201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517135</v>
+        <v>29.76087280517125</v>
       </c>
       <c r="S34" t="n">
-        <v>130.5977454665659</v>
+        <v>130.5977454665658</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3776694112932</v>
+        <v>160.3776694112931</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0405583407369</v>
+        <v>227.0405583407367</v>
       </c>
       <c r="V34" t="n">
-        <v>192.966363458952</v>
+        <v>192.9663634589519</v>
       </c>
       <c r="W34" t="n">
-        <v>227.351718471715</v>
+        <v>227.3517184717149</v>
       </c>
       <c r="X34" t="n">
-        <v>166.5383755241612</v>
+        <v>166.538375524161</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.4133734872188</v>
+        <v>159.4133734872187</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3597,7 +3597,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.191325513605</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007073</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307968</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383218</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052271</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010723</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846405</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482612</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309231</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621566</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1853.183105239074</v>
+        <v>1359.704840718286</v>
       </c>
       <c r="C11" t="n">
-        <v>1748.614016152364</v>
+        <v>1029.644788791236</v>
       </c>
       <c r="D11" t="n">
-        <v>1429.250782558976</v>
+        <v>710.2815551978485</v>
       </c>
       <c r="E11" t="n">
-        <v>1082.364994974094</v>
+        <v>710.2815551978485</v>
       </c>
       <c r="F11" t="n">
-        <v>710.2815551978489</v>
+        <v>710.2815551978485</v>
       </c>
       <c r="G11" t="n">
-        <v>333.8845287545744</v>
+        <v>333.8845287545742</v>
       </c>
       <c r="H11" t="n">
-        <v>72.87820664634937</v>
+        <v>72.87820664634927</v>
       </c>
       <c r="I11" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J11" t="n">
-        <v>231.0235173512797</v>
+        <v>231.0235173512788</v>
       </c>
       <c r="K11" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174098</v>
       </c>
       <c r="L11" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804087</v>
       </c>
       <c r="M11" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069381</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.9877258608</v>
       </c>
       <c r="O11" t="n">
-        <v>2419.467544341229</v>
+        <v>2419.467544341226</v>
       </c>
       <c r="P11" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3006.499161029605</v>
+        <v>3006.499161029602</v>
       </c>
       <c r="R11" t="n">
-        <v>3051.538155897626</v>
+        <v>3051.538155897623</v>
       </c>
       <c r="S11" t="n">
-        <v>2974.976248777109</v>
+        <v>2974.976248777105</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.907092876793</v>
+        <v>2806.907092876789</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.907092876793</v>
+        <v>2592.260917859858</v>
       </c>
       <c r="V11" t="n">
-        <v>2514.746670546585</v>
+        <v>2300.10049552965</v>
       </c>
       <c r="W11" t="n">
-        <v>2200.880480289833</v>
+        <v>1986.234305272898</v>
       </c>
       <c r="X11" t="n">
-        <v>2200.880480289833</v>
+        <v>1651.671012025181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2200.880480289833</v>
+        <v>1359.704840718286</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>918.3499072362334</v>
+        <v>780.9495858350049</v>
       </c>
       <c r="C12" t="n">
-        <v>743.8968779551064</v>
+        <v>611.4767690443027</v>
       </c>
       <c r="D12" t="n">
-        <v>594.9624682938552</v>
+        <v>501.4448243964141</v>
       </c>
       <c r="E12" t="n">
-        <v>435.7250132883997</v>
+        <v>342.2073693909586</v>
       </c>
       <c r="F12" t="n">
-        <v>289.1904553152847</v>
+        <v>234.5752764312062</v>
       </c>
       <c r="G12" t="n">
-        <v>152.7058773420334</v>
+        <v>136.9931634713177</v>
       </c>
       <c r="H12" t="n">
-        <v>61.03076311795253</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="I12" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J12" t="n">
-        <v>143.4594360153768</v>
+        <v>143.4594360153766</v>
       </c>
       <c r="K12" t="n">
-        <v>362.4979917678521</v>
+        <v>362.4979917678517</v>
       </c>
       <c r="L12" t="n">
-        <v>703.3449021689062</v>
+        <v>703.3449021689054</v>
       </c>
       <c r="M12" t="n">
-        <v>1120.454038069057</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N12" t="n">
-        <v>1563.011456565262</v>
+        <v>1563.01145656526</v>
       </c>
       <c r="O12" t="n">
-        <v>1945.645238680919</v>
+        <v>1945.645238680917</v>
       </c>
       <c r="P12" t="n">
-        <v>2233.409516175571</v>
+        <v>2233.409516175569</v>
       </c>
       <c r="Q12" t="n">
-        <v>2375.85311851609</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="R12" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196822</v>
       </c>
       <c r="S12" t="n">
-        <v>2283.061300058649</v>
+        <v>2236.472201726019</v>
       </c>
       <c r="T12" t="n">
-        <v>2128.831123944631</v>
+        <v>2082.242025612001</v>
       </c>
       <c r="U12" t="n">
-        <v>1900.755285118134</v>
+        <v>1854.166186785504</v>
       </c>
       <c r="V12" t="n">
-        <v>1704.505641899754</v>
+        <v>1619.014078553761</v>
       </c>
       <c r="W12" t="n">
-        <v>1489.170750184914</v>
+        <v>1364.77672182556</v>
       </c>
       <c r="X12" t="n">
-        <v>1294.325543021255</v>
+        <v>1156.925221620027</v>
       </c>
       <c r="Y12" t="n">
-        <v>1086.565244256301</v>
+        <v>949.164922855073</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>687.85136721036</v>
+        <v>504.2947883671335</v>
       </c>
       <c r="C13" t="n">
-        <v>687.85136721036</v>
+        <v>374.2610704525893</v>
       </c>
       <c r="D13" t="n">
-        <v>576.6371928113869</v>
+        <v>263.0468960536163</v>
       </c>
       <c r="E13" t="n">
-        <v>467.6265642423563</v>
+        <v>154.0362674845861</v>
       </c>
       <c r="F13" t="n">
-        <v>359.6390817578085</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7368672341531</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="H13" t="n">
-        <v>122.5166693955677</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="I13" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2246935124986</v>
+        <v>137.2246935124985</v>
       </c>
       <c r="K13" t="n">
-        <v>367.7433504300777</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L13" t="n">
-        <v>707.5915025393379</v>
+        <v>707.5915025393375</v>
       </c>
       <c r="M13" t="n">
         <v>1074.230205114212</v>
       </c>
       <c r="N13" t="n">
-        <v>1438.492281136269</v>
+        <v>1438.492281136268</v>
       </c>
       <c r="O13" t="n">
-        <v>1761.841614514368</v>
+        <v>1761.841614514367</v>
       </c>
       <c r="P13" t="n">
-        <v>2020.505100656696</v>
+        <v>2020.505100656695</v>
       </c>
       <c r="Q13" t="n">
         <v>2127.885453984134</v>
@@ -5224,25 +5224,25 @@
         <v>2072.378234105474</v>
       </c>
       <c r="S13" t="n">
-        <v>1919.486435460544</v>
+        <v>1917.819970747485</v>
       </c>
       <c r="T13" t="n">
-        <v>1736.187138056921</v>
+        <v>1734.520673343862</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.981181128014</v>
+        <v>1484.314716414955</v>
       </c>
       <c r="V13" t="n">
-        <v>1270.19915793549</v>
+        <v>1268.532693222431</v>
       </c>
       <c r="W13" t="n">
-        <v>1019.684452911892</v>
+        <v>1018.017988198833</v>
       </c>
       <c r="X13" t="n">
-        <v>830.5973670272372</v>
+        <v>828.9309023141781</v>
       </c>
       <c r="Y13" t="n">
-        <v>830.5973670272372</v>
+        <v>647.0407881840106</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1303.973636974424</v>
+        <v>1040.341607124899</v>
       </c>
       <c r="C14" t="n">
-        <v>973.9135850473742</v>
+        <v>710.2815551978487</v>
       </c>
       <c r="D14" t="n">
-        <v>973.9135850473742</v>
+        <v>710.2815551978487</v>
       </c>
       <c r="E14" t="n">
-        <v>698.4341116694525</v>
+        <v>710.2815551978487</v>
       </c>
       <c r="F14" t="n">
-        <v>698.4341116694525</v>
+        <v>710.2815551978487</v>
       </c>
       <c r="G14" t="n">
-        <v>322.0370852261777</v>
+        <v>333.8845287545743</v>
       </c>
       <c r="H14" t="n">
-        <v>61.03076311795253</v>
+        <v>72.87820664634931</v>
       </c>
       <c r="I14" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J14" t="n">
-        <v>231.0235173512797</v>
+        <v>231.0235173512791</v>
       </c>
       <c r="K14" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174103</v>
       </c>
       <c r="L14" t="n">
-        <v>952.4554946804114</v>
+        <v>952.4554946804101</v>
       </c>
       <c r="M14" t="n">
-        <v>1446.914276069384</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N14" t="n">
-        <v>1953.987725860804</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O14" t="n">
-        <v>2419.467544341229</v>
+        <v>2419.467544341226</v>
       </c>
       <c r="P14" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299102</v>
       </c>
       <c r="Q14" t="n">
-        <v>3006.499161029605</v>
+        <v>3006.499161029602</v>
       </c>
       <c r="R14" t="n">
-        <v>3051.538155897626</v>
+        <v>3051.538155897623</v>
       </c>
       <c r="S14" t="n">
-        <v>2974.976248777109</v>
+        <v>2974.976248777105</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.907092876792</v>
+        <v>2806.907092876789</v>
       </c>
       <c r="U14" t="n">
-        <v>2592.26091785986</v>
+        <v>2592.260917859858</v>
       </c>
       <c r="V14" t="n">
-        <v>2300.100495529652</v>
+        <v>2300.10049552965</v>
       </c>
       <c r="W14" t="n">
-        <v>1986.2343052729</v>
+        <v>1986.234305272898</v>
       </c>
       <c r="X14" t="n">
-        <v>1651.671012025183</v>
+        <v>1651.671012025181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1651.671012025183</v>
+        <v>1300.434145062732</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>879.447442222871</v>
+        <v>858.7545158617303</v>
       </c>
       <c r="C15" t="n">
-        <v>704.994412941744</v>
+        <v>684.3014865806033</v>
       </c>
       <c r="D15" t="n">
-        <v>556.0600032804928</v>
+        <v>535.367076919352</v>
       </c>
       <c r="E15" t="n">
-        <v>396.8225482750373</v>
+        <v>415.0320869272592</v>
       </c>
       <c r="F15" t="n">
-        <v>250.2879903019223</v>
+        <v>307.3999939675069</v>
       </c>
       <c r="G15" t="n">
-        <v>152.7058773420334</v>
+        <v>175.8956284846804</v>
       </c>
       <c r="H15" t="n">
-        <v>61.03076311795253</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="I15" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J15" t="n">
-        <v>143.4594360153768</v>
+        <v>143.4594360153766</v>
       </c>
       <c r="K15" t="n">
-        <v>362.4979917678521</v>
+        <v>362.4979917678517</v>
       </c>
       <c r="L15" t="n">
-        <v>703.3449021689062</v>
+        <v>703.3449021689054</v>
       </c>
       <c r="M15" t="n">
-        <v>1120.454038069057</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N15" t="n">
-        <v>1563.011456565262</v>
+        <v>1563.01145656526</v>
       </c>
       <c r="O15" t="n">
-        <v>1945.645238680919</v>
+        <v>1945.645238680917</v>
       </c>
       <c r="P15" t="n">
-        <v>2233.409516175571</v>
+        <v>2233.409516175569</v>
       </c>
       <c r="Q15" t="n">
-        <v>2375.85311851609</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="R15" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196822</v>
       </c>
       <c r="S15" t="n">
-        <v>2244.158835045287</v>
+        <v>2236.472201726019</v>
       </c>
       <c r="T15" t="n">
-        <v>2051.026193917906</v>
+        <v>2043.339560598638</v>
       </c>
       <c r="U15" t="n">
-        <v>1861.852820104771</v>
+        <v>1815.263721772141</v>
       </c>
       <c r="V15" t="n">
-        <v>1665.603176886391</v>
+        <v>1619.014078553761</v>
       </c>
       <c r="W15" t="n">
-        <v>1450.268285171552</v>
+        <v>1364.77672182556</v>
       </c>
       <c r="X15" t="n">
-        <v>1242.416784966019</v>
+        <v>1195.827686633389</v>
       </c>
       <c r="Y15" t="n">
-        <v>1047.662779242939</v>
+        <v>988.0673878684356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>756.3991788472906</v>
+        <v>559.8020082457931</v>
       </c>
       <c r="C16" t="n">
-        <v>626.365460932746</v>
+        <v>429.7682903312487</v>
       </c>
       <c r="D16" t="n">
-        <v>515.1512865337727</v>
+        <v>318.5541159322756</v>
       </c>
       <c r="E16" t="n">
-        <v>406.1406579647419</v>
+        <v>209.5434873632453</v>
       </c>
       <c r="F16" t="n">
-        <v>298.1531754801939</v>
+        <v>209.5434873632453</v>
       </c>
       <c r="G16" t="n">
-        <v>169.2509609565383</v>
+        <v>80.6412728395901</v>
       </c>
       <c r="H16" t="n">
-        <v>61.03076311795253</v>
+        <v>80.6412728395901</v>
       </c>
       <c r="I16" t="n">
-        <v>61.03076311795253</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2246935124982</v>
+        <v>137.2246935124985</v>
       </c>
       <c r="K16" t="n">
-        <v>367.743350430077</v>
+        <v>367.7433504300775</v>
       </c>
       <c r="L16" t="n">
-        <v>707.5915025393371</v>
+        <v>707.5915025393376</v>
       </c>
       <c r="M16" t="n">
         <v>1074.230205114211</v>
       </c>
       <c r="N16" t="n">
-        <v>1438.492281136267</v>
+        <v>1438.492281136268</v>
       </c>
       <c r="O16" t="n">
-        <v>1761.841614514366</v>
+        <v>1761.841614514367</v>
       </c>
       <c r="P16" t="n">
         <v>2020.505100656695</v>
       </c>
       <c r="Q16" t="n">
-        <v>2127.885453984132</v>
+        <v>2127.885453984133</v>
       </c>
       <c r="R16" t="n">
-        <v>2072.378234105473</v>
+        <v>2127.885453984133</v>
       </c>
       <c r="S16" t="n">
-        <v>1917.819970747483</v>
+        <v>1973.327190626144</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.520673343859</v>
+        <v>1790.027893222521</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.520673343859</v>
+        <v>1539.821936293614</v>
       </c>
       <c r="V16" t="n">
-        <v>1518.738650151335</v>
+        <v>1324.03991310109</v>
       </c>
       <c r="W16" t="n">
-        <v>1270.122378678991</v>
+        <v>1073.525208077492</v>
       </c>
       <c r="X16" t="n">
-        <v>1081.035292794336</v>
+        <v>884.4381221928375</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.1451786641679</v>
+        <v>702.5480080626701</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1708.212807188131</v>
+        <v>1430.88852649582</v>
       </c>
       <c r="C17" t="n">
-        <v>1437.921724821563</v>
+        <v>1160.597444129251</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.327460788655</v>
+        <v>901.0031800963444</v>
       </c>
       <c r="E17" t="n">
-        <v>891.2106427642545</v>
+        <v>613.8863620719437</v>
       </c>
       <c r="F17" t="n">
-        <v>578.8961725484903</v>
+        <v>301.5718918561799</v>
       </c>
       <c r="G17" t="n">
-        <v>262.2681156656967</v>
+        <v>262.2681156656965</v>
       </c>
       <c r="H17" t="n">
-        <v>61.03076311795248</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="I17" t="n">
-        <v>61.03076311795248</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J17" t="n">
-        <v>231.0235173512788</v>
+        <v>231.0235173512779</v>
       </c>
       <c r="K17" t="n">
-        <v>536.5371081174103</v>
+        <v>536.5371081174089</v>
       </c>
       <c r="L17" t="n">
-        <v>952.4554946804083</v>
+        <v>952.455494680408</v>
       </c>
       <c r="M17" t="n">
-        <v>1446.914276069381</v>
+        <v>1446.91427606938</v>
       </c>
       <c r="N17" t="n">
-        <v>1953.987725860801</v>
+        <v>1953.987725860799</v>
       </c>
       <c r="O17" t="n">
-        <v>2419.467544341226</v>
+        <v>2419.467544341225</v>
       </c>
       <c r="P17" t="n">
-        <v>2782.242799299103</v>
+        <v>2782.242799299102</v>
       </c>
       <c r="Q17" t="n">
-        <v>3006.499161029603</v>
+        <v>3006.499161029602</v>
       </c>
       <c r="R17" t="n">
-        <v>3051.538155897624</v>
+        <v>3051.538155897623</v>
       </c>
       <c r="S17" t="n">
-        <v>3034.745218337588</v>
+        <v>3034.745218337586</v>
       </c>
       <c r="T17" t="n">
-        <v>3034.745218337588</v>
+        <v>2926.445031997751</v>
       </c>
       <c r="U17" t="n">
-        <v>2879.868012881137</v>
+        <v>2771.5678265413</v>
       </c>
       <c r="V17" t="n">
-        <v>2816.500654463885</v>
+        <v>2539.176373771573</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.403433767614</v>
+        <v>2285.079153075302</v>
       </c>
       <c r="X17" t="n">
-        <v>2287.609110080377</v>
+        <v>2010.284829388066</v>
       </c>
       <c r="Y17" t="n">
-        <v>1996.141212678409</v>
+        <v>1718.816931986098</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>848.4051887147534</v>
+        <v>840.7185553954859</v>
       </c>
       <c r="C18" t="n">
-        <v>673.9521594336264</v>
+        <v>666.2655261143589</v>
       </c>
       <c r="D18" t="n">
-        <v>618.152219436502</v>
+        <v>517.3311164531076</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9147644310466</v>
+        <v>456.7650960214956</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3802064579315</v>
+        <v>312.3802064579316</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8956284846803</v>
+        <v>175.8956284846804</v>
       </c>
       <c r="H18" t="n">
-        <v>84.22051426059943</v>
+        <v>84.22051426059946</v>
       </c>
       <c r="I18" t="n">
-        <v>61.03076311795248</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J18" t="n">
-        <v>143.4594360153768</v>
+        <v>143.4594360153766</v>
       </c>
       <c r="K18" t="n">
-        <v>362.4979917678521</v>
+        <v>362.4979917678517</v>
       </c>
       <c r="L18" t="n">
-        <v>703.3449021689062</v>
+        <v>703.3449021689054</v>
       </c>
       <c r="M18" t="n">
-        <v>1120.454038069057</v>
+        <v>1120.454038069056</v>
       </c>
       <c r="N18" t="n">
-        <v>1563.011456565262</v>
+        <v>1563.01145656526</v>
       </c>
       <c r="O18" t="n">
-        <v>1945.645238680919</v>
+        <v>1945.645238680917</v>
       </c>
       <c r="P18" t="n">
-        <v>2233.409516175571</v>
+        <v>2233.409516175569</v>
       </c>
       <c r="Q18" t="n">
-        <v>2375.85311851609</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="R18" t="n">
-        <v>2375.85311851609</v>
+        <v>2368.166485196822</v>
       </c>
       <c r="S18" t="n">
-        <v>2244.158835045287</v>
+        <v>2236.472201726019</v>
       </c>
       <c r="T18" t="n">
-        <v>2051.026193917906</v>
+        <v>2043.339560598638</v>
       </c>
       <c r="U18" t="n">
-        <v>1822.950355091409</v>
+        <v>1815.263721772141</v>
       </c>
       <c r="V18" t="n">
-        <v>1587.798246859666</v>
+        <v>1580.111613540399</v>
       </c>
       <c r="W18" t="n">
-        <v>1333.560890131465</v>
+        <v>1325.874256812197</v>
       </c>
       <c r="X18" t="n">
-        <v>1224.380824499775</v>
+        <v>1118.022756606664</v>
       </c>
       <c r="Y18" t="n">
-        <v>1016.620525734822</v>
+        <v>910.2624578417103</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.5022982015385</v>
+        <v>399.5022982015377</v>
       </c>
       <c r="C19" t="n">
-        <v>329.237549847475</v>
+        <v>329.2375498474743</v>
       </c>
       <c r="D19" t="n">
-        <v>277.7923450089826</v>
+        <v>277.7923450089821</v>
       </c>
       <c r="E19" t="n">
-        <v>228.5506860004329</v>
+        <v>228.5506860004325</v>
       </c>
       <c r="F19" t="n">
-        <v>180.332173076366</v>
+        <v>180.3321730763657</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1989281131915</v>
+        <v>111.1989281131913</v>
       </c>
       <c r="H19" t="n">
-        <v>62.74769983508678</v>
+        <v>62.74769983508669</v>
       </c>
       <c r="I19" t="n">
-        <v>61.03076311795248</v>
+        <v>61.03076311795246</v>
       </c>
       <c r="J19" t="n">
-        <v>162.5043816692297</v>
+        <v>154.3548530442874</v>
       </c>
       <c r="K19" t="n">
-        <v>345.92627697183</v>
+        <v>337.7767483468876</v>
       </c>
       <c r="L19" t="n">
-        <v>579.5314538593905</v>
+        <v>575.3545129962362</v>
       </c>
       <c r="M19" t="n">
-        <v>731.317286174317</v>
+        <v>823.8482183369866</v>
       </c>
       <c r="N19" t="n">
-        <v>984.0593895865832</v>
+        <v>1076.590321749253</v>
       </c>
       <c r="O19" t="n">
-        <v>1204.577040328686</v>
+        <v>1297.107972491356</v>
       </c>
       <c r="P19" t="n">
-        <v>1388.163595856341</v>
+        <v>1383.986654993187</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.433987456033</v>
+        <v>1485.257046592878</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.433987456033</v>
+        <v>1489.433987456031</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.644693658525</v>
+        <v>1394.644693658523</v>
       </c>
       <c r="T19" t="n">
-        <v>1271.114365815382</v>
+        <v>1271.114365815381</v>
       </c>
       <c r="U19" t="n">
-        <v>1080.677378446956</v>
+        <v>1080.677378446955</v>
       </c>
       <c r="V19" t="n">
-        <v>924.6643248149126</v>
+        <v>924.6643248149114</v>
       </c>
       <c r="W19" t="n">
-        <v>733.9185893517954</v>
+        <v>733.9185893517944</v>
       </c>
       <c r="X19" t="n">
-        <v>604.6004730276214</v>
+        <v>604.6004730276205</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.4793284579347</v>
+        <v>482.4793284579339</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1430.888526495821</v>
+        <v>1430.88852649582</v>
       </c>
       <c r="C20" t="n">
-        <v>1160.597444129253</v>
+        <v>1160.597444129252</v>
       </c>
       <c r="D20" t="n">
-        <v>901.0031800963454</v>
+        <v>901.0031800963452</v>
       </c>
       <c r="E20" t="n">
-        <v>613.8863620719446</v>
+        <v>613.8863620719444</v>
       </c>
       <c r="F20" t="n">
-        <v>301.5718918561805</v>
+        <v>578.8961725484901</v>
       </c>
       <c r="G20" t="n">
-        <v>262.2681156656967</v>
+        <v>262.2681156656965</v>
       </c>
       <c r="H20" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="I20" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J20" t="n">
         <v>231.0235173512792</v>
       </c>
       <c r="K20" t="n">
-        <v>536.5371081174112</v>
+        <v>536.5371081174103</v>
       </c>
       <c r="L20" t="n">
-        <v>952.4554946804105</v>
+        <v>952.4554946804101</v>
       </c>
       <c r="M20" t="n">
-        <v>1446.914276069383</v>
+        <v>1446.914276069382</v>
       </c>
       <c r="N20" t="n">
-        <v>1953.987725860803</v>
+        <v>1953.987725860802</v>
       </c>
       <c r="O20" t="n">
-        <v>2419.467544341228</v>
+        <v>2419.467544341226</v>
       </c>
       <c r="P20" t="n">
-        <v>2782.242799299105</v>
+        <v>2782.242799299102</v>
       </c>
       <c r="Q20" t="n">
-        <v>3006.499161029604</v>
+        <v>3006.499161029602</v>
       </c>
       <c r="R20" t="n">
-        <v>3051.538155897625</v>
+        <v>3051.538155897623</v>
       </c>
       <c r="S20" t="n">
-        <v>3034.745218337589</v>
+        <v>3034.745218337587</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.445031997753</v>
+        <v>2926.445031997751</v>
       </c>
       <c r="U20" t="n">
-        <v>2771.567826541302</v>
+        <v>2771.567826541301</v>
       </c>
       <c r="V20" t="n">
-        <v>2539.176373771575</v>
+        <v>2539.176373771574</v>
       </c>
       <c r="W20" t="n">
-        <v>2285.079153075304</v>
+        <v>2285.079153075303</v>
       </c>
       <c r="X20" t="n">
-        <v>2010.284829388068</v>
+        <v>2010.284829388067</v>
       </c>
       <c r="Y20" t="n">
         <v>1718.816931986099</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>918.3499072362334</v>
+        <v>742.0471208216422</v>
       </c>
       <c r="C21" t="n">
-        <v>743.8968779551064</v>
+        <v>645.2254433812628</v>
       </c>
       <c r="D21" t="n">
-        <v>594.9624682938552</v>
+        <v>496.2910337200116</v>
       </c>
       <c r="E21" t="n">
-        <v>435.7250132883996</v>
+        <v>337.0535787145561</v>
       </c>
       <c r="F21" t="n">
         <v>289.1904553152846</v>
@@ -5823,58 +5823,58 @@
         <v>152.7058773420334</v>
       </c>
       <c r="H21" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="I21" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J21" t="n">
-        <v>143.4594360153768</v>
+        <v>143.4594360153766</v>
       </c>
       <c r="K21" t="n">
-        <v>362.4979917678519</v>
+        <v>362.4979917678517</v>
       </c>
       <c r="L21" t="n">
-        <v>703.3449021689058</v>
+        <v>703.3449021689054</v>
       </c>
       <c r="M21" t="n">
         <v>1120.454038069056</v>
       </c>
       <c r="N21" t="n">
-        <v>1563.011456565261</v>
+        <v>1563.01145656526</v>
       </c>
       <c r="O21" t="n">
-        <v>1945.645238680919</v>
+        <v>1945.645238680917</v>
       </c>
       <c r="P21" t="n">
-        <v>2233.40951617557</v>
+        <v>2233.409516175569</v>
       </c>
       <c r="Q21" t="n">
-        <v>2375.853118516089</v>
+        <v>2375.853118516088</v>
       </c>
       <c r="R21" t="n">
-        <v>2375.853118516089</v>
+        <v>2368.166485196822</v>
       </c>
       <c r="S21" t="n">
-        <v>2244.158835045286</v>
+        <v>2236.472201726019</v>
       </c>
       <c r="T21" t="n">
-        <v>2149.697628491749</v>
+        <v>2043.339560598638</v>
       </c>
       <c r="U21" t="n">
-        <v>1921.621789665252</v>
+        <v>1815.263721772141</v>
       </c>
       <c r="V21" t="n">
-        <v>1686.469681433509</v>
+        <v>1580.111613540399</v>
       </c>
       <c r="W21" t="n">
-        <v>1432.232324705308</v>
+        <v>1325.874256812197</v>
       </c>
       <c r="X21" t="n">
-        <v>1224.380824499775</v>
+        <v>1118.022756606664</v>
       </c>
       <c r="Y21" t="n">
-        <v>1086.565244256301</v>
+        <v>910.2624578417103</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.5022982015385</v>
+        <v>399.5022982015377</v>
       </c>
       <c r="C22" t="n">
-        <v>329.237549847475</v>
+        <v>329.2375498474743</v>
       </c>
       <c r="D22" t="n">
-        <v>277.7923450089827</v>
+        <v>277.7923450089821</v>
       </c>
       <c r="E22" t="n">
-        <v>228.550686000433</v>
+        <v>228.5506860004325</v>
       </c>
       <c r="F22" t="n">
-        <v>180.332173076366</v>
+        <v>180.3321730763657</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1989281131915</v>
+        <v>111.1989281131913</v>
       </c>
       <c r="H22" t="n">
-        <v>62.74769983508681</v>
+        <v>62.74769983508669</v>
       </c>
       <c r="I22" t="n">
-        <v>61.0307631179525</v>
+        <v>61.03076311795247</v>
       </c>
       <c r="J22" t="n">
-        <v>162.5043816692297</v>
+        <v>154.3548530442875</v>
       </c>
       <c r="K22" t="n">
-        <v>345.92627697183</v>
+        <v>337.7767483468878</v>
       </c>
       <c r="L22" t="n">
-        <v>583.5040416211784</v>
+        <v>478.6466399704123</v>
       </c>
       <c r="M22" t="n">
-        <v>831.9977469619289</v>
+        <v>727.1403453111627</v>
       </c>
       <c r="N22" t="n">
-        <v>1080.767262612408</v>
+        <v>979.8824487234289</v>
       </c>
       <c r="O22" t="n">
-        <v>1301.284913354511</v>
+        <v>1200.400099465532</v>
       </c>
       <c r="P22" t="n">
-        <v>1388.163595856342</v>
+        <v>1383.986654993187</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.433987456033</v>
+        <v>1485.257046592878</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.433987456033</v>
+        <v>1489.433987456031</v>
       </c>
       <c r="S22" t="n">
-        <v>1394.644693658525</v>
+        <v>1394.644693658523</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.114365815382</v>
+        <v>1271.114365815381</v>
       </c>
       <c r="U22" t="n">
-        <v>1080.677378446956</v>
+        <v>1080.677378446955</v>
       </c>
       <c r="V22" t="n">
-        <v>924.6643248149128</v>
+        <v>924.6643248149114</v>
       </c>
       <c r="W22" t="n">
-        <v>733.9185893517955</v>
+        <v>733.9185893517944</v>
       </c>
       <c r="X22" t="n">
-        <v>604.6004730276215</v>
+        <v>604.6004730276205</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.4793284579348</v>
+        <v>482.4793284579339</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
@@ -5972,67 +5972,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
         <v>458.9189605332749</v>
@@ -6060,10 +6060,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6105,13 +6105,13 @@
         <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245365</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K25" t="n">
-        <v>262.1948921089725</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L25" t="n">
-        <v>514.6126090571536</v>
+        <v>514.6126090571519</v>
       </c>
       <c r="M25" t="n">
-        <v>778.7529633821753</v>
+        <v>778.7529633821737</v>
       </c>
       <c r="N25" t="n">
-        <v>1046.769673437847</v>
+        <v>1046.769673437845</v>
       </c>
       <c r="O25" t="n">
-        <v>1281.39589568186</v>
+        <v>1281.395895681859</v>
       </c>
       <c r="P25" t="n">
-        <v>1477.054771460443</v>
+        <v>1477.054771460441</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304653</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673483</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431744</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734878</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1646.478165174435</v>
       </c>
       <c r="D26" t="n">
-        <v>1347.981436128165</v>
+        <v>1347.981436128166</v>
       </c>
       <c r="E26" t="n">
         <v>1021.962153090402</v>
       </c>
       <c r="F26" t="n">
-        <v>670.7452178612753</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G26" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H26" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I26" t="n">
-        <v>95.04551302703186</v>
+        <v>95.04551302703157</v>
       </c>
       <c r="J26" t="n">
         <v>342.5042110522845</v>
       </c>
       <c r="K26" t="n">
-        <v>734.9031518083582</v>
+        <v>734.903151808358</v>
       </c>
       <c r="L26" t="n">
         <v>1244.516932122994</v>
@@ -6266,7 +6266,7 @@
         <v>2926.569734173937</v>
       </c>
       <c r="X26" t="n">
-        <v>2612.872945473337</v>
+        <v>2612.872945473338</v>
       </c>
       <c r="Y26" t="n">
         <v>2282.502583058007</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>952.6588444849258</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C27" t="n">
-        <v>778.2058152037988</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D27" t="n">
-        <v>629.2714055425477</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E27" t="n">
-        <v>470.0339505370921</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F27" t="n">
-        <v>323.4993925639772</v>
+        <v>323.4993925639777</v>
       </c>
       <c r="G27" t="n">
         <v>187.1362923965958</v>
       </c>
       <c r="H27" t="n">
-        <v>96.63439803446333</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I27" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3043759266188</v>
+        <v>171.3043759266185</v>
       </c>
       <c r="K27" t="n">
-        <v>409.5685749069659</v>
+        <v>409.5685749069656</v>
       </c>
       <c r="L27" t="n">
-        <v>776.2667352196313</v>
+        <v>776.2667352196308</v>
       </c>
       <c r="M27" t="n">
         <v>1223.543060441947</v>
@@ -6321,16 +6321,16 @@
         <v>2108.027383414456</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.526974890559</v>
+        <v>2418.526974890558</v>
       </c>
       <c r="Q27" t="n">
-        <v>2576.168532537159</v>
+        <v>2576.168532537158</v>
       </c>
       <c r="R27" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S27" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T27" t="n">
         <v>2253.943292301009</v>
@@ -6342,7 +6342,7 @@
         <v>1790.723337203682</v>
       </c>
       <c r="W27" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X27" t="n">
         <v>1328.634480269948</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.3458835222593</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C28" t="n">
-        <v>575.1786701548333</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D28" t="n">
         <v>484.8310003029785</v>
@@ -6382,22 +6382,22 @@
         <v>77.62710643600128</v>
       </c>
       <c r="J28" t="n">
-        <v>181.3293059491641</v>
+        <v>148.029427039668</v>
       </c>
       <c r="K28" t="n">
-        <v>443.8960559642677</v>
+        <v>410.5961770547716</v>
       </c>
       <c r="L28" t="n">
-        <v>819.0354214789911</v>
+        <v>785.735542569495</v>
       </c>
       <c r="M28" t="n">
-        <v>1045.047469844416</v>
+        <v>1098.168733511699</v>
       </c>
       <c r="N28" t="n">
-        <v>1328.057137607773</v>
+        <v>1328.057137607774</v>
       </c>
       <c r="O28" t="n">
-        <v>1685.966303594414</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P28" t="n">
         <v>1977.153371094301</v>
@@ -6406,13 +6406,13 @@
         <v>2113.343234313043</v>
       </c>
       <c r="R28" t="n">
-        <v>2083.281746631051</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T28" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U28" t="n">
         <v>1560.03328883449</v>
@@ -6424,10 +6424,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X28" t="n">
-        <v>967.2489883750675</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2253787920182</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C29" t="n">
         <v>1646.478165174436</v>
@@ -6452,25 +6452,25 @@
         <v>670.7452178612762</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667531</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703203</v>
+        <v>95.04551302703184</v>
       </c>
       <c r="J29" t="n">
         <v>342.5042110522845</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083581</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861146</v>
+        <v>1836.628403861145</v>
       </c>
       <c r="N29" t="n">
         <v>2441.986787986155</v>
@@ -6482,22 +6482,22 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q29" t="n">
-        <v>3763.758688177034</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R29" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F30" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G30" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965949</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446337</v>
       </c>
       <c r="I30" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K30" t="n">
         <v>409.5685749069656</v>
@@ -6564,28 +6564,28 @@
         <v>2576.168532537158</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S30" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T30" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U30" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V30" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W30" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X30" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y30" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222591</v>
+        <v>684.3458835222594</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548331</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029782</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E31" t="n">
-        <v>396.686876281066</v>
+        <v>396.6868762810662</v>
       </c>
       <c r="F31" t="n">
-        <v>309.5658983436365</v>
+        <v>309.5658983436367</v>
       </c>
       <c r="G31" t="n">
-        <v>201.6320312788364</v>
+        <v>201.6320312788365</v>
       </c>
       <c r="H31" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I31" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J31" t="n">
         <v>181.3293059491641</v>
       </c>
       <c r="K31" t="n">
-        <v>443.8960559642678</v>
+        <v>443.8960559642677</v>
       </c>
       <c r="L31" t="n">
-        <v>819.0354214789912</v>
+        <v>819.0354214789911</v>
       </c>
       <c r="M31" t="n">
-        <v>1061.725691516581</v>
+        <v>1221.772034144767</v>
       </c>
       <c r="N31" t="n">
-        <v>1461.713635288673</v>
+        <v>1461.713635288675</v>
       </c>
       <c r="O31" t="n">
-        <v>1819.622801275314</v>
+        <v>1819.622801275315</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.1533710943</v>
+        <v>1977.153371094301</v>
       </c>
       <c r="Q31" t="n">
-        <v>2113.343234313042</v>
+        <v>2113.343234313043</v>
       </c>
       <c r="R31" t="n">
-        <v>2083.28174663105</v>
+        <v>2083.281746631052</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.364832018358</v>
+        <v>1951.364832018359</v>
       </c>
       <c r="T31" t="n">
-        <v>1789.367186148365</v>
+        <v>1789.367186148366</v>
       </c>
       <c r="U31" t="n">
-        <v>1560.033288834489</v>
+        <v>1560.03328883449</v>
       </c>
       <c r="V31" t="n">
-        <v>1365.117770189083</v>
+        <v>1365.117770189084</v>
       </c>
       <c r="W31" t="n">
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.248988375067</v>
+        <v>967.2489883750676</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920179</v>
+        <v>806.2253787920183</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612758</v>
+        <v>670.7452178612766</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667532</v>
       </c>
       <c r="H32" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="I32" t="n">
-        <v>95.0455130270318</v>
+        <v>95.04551302703193</v>
       </c>
       <c r="J32" t="n">
-        <v>342.5042110522844</v>
+        <v>342.5042110522846</v>
       </c>
       <c r="K32" t="n">
-        <v>734.903151808358</v>
+        <v>734.9031518083584</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N32" t="n">
-        <v>2441.986787986155</v>
+        <v>2441.986787986156</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.538825931719</v>
+        <v>3003.53882593172</v>
       </c>
       <c r="P32" t="n">
-        <v>3456.892759355124</v>
+        <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177033</v>
+        <v>3763.758688177035</v>
       </c>
       <c r="R32" t="n">
-        <v>3881.355321800064</v>
+        <v>3881.355321800065</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U32" t="n">
         <v>3490.863337666661</v>
@@ -6743,7 +6743,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849256</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037986</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425473</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370918</v>
       </c>
       <c r="F33" t="n">
-        <v>323.4993925639777</v>
+        <v>323.4993925639768</v>
       </c>
       <c r="G33" t="n">
-        <v>187.1362923965958</v>
+        <v>187.1362923965949</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446242</v>
       </c>
       <c r="I33" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3043759266185</v>
+        <v>171.3043759266186</v>
       </c>
       <c r="K33" t="n">
         <v>409.5685749069656</v>
@@ -6801,28 +6801,28 @@
         <v>2576.168532537158</v>
       </c>
       <c r="R33" t="n">
-        <v>2576.024179129674</v>
+        <v>2576.024179129673</v>
       </c>
       <c r="S33" t="n">
-        <v>2446.586292623154</v>
+        <v>2446.586292623153</v>
       </c>
       <c r="T33" t="n">
-        <v>2253.94329230101</v>
+        <v>2253.943292301009</v>
       </c>
       <c r="U33" t="n">
         <v>2025.875445435425</v>
       </c>
       <c r="V33" t="n">
-        <v>1790.723337203683</v>
+        <v>1790.723337203682</v>
       </c>
       <c r="W33" t="n">
-        <v>1536.485980475481</v>
+        <v>1536.48598047548</v>
       </c>
       <c r="X33" t="n">
         <v>1328.634480269948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1120.874181504995</v>
+        <v>1120.874181504994</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222598</v>
+        <v>684.345883522259</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548336</v>
+        <v>575.178670154833</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029787</v>
+        <v>484.8310003029781</v>
       </c>
       <c r="E34" t="n">
-        <v>396.6868762810664</v>
+        <v>396.6868762810659</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5658983436368</v>
+        <v>309.5658983436365</v>
       </c>
       <c r="G34" t="n">
-        <v>201.6320312788366</v>
+        <v>201.6320312788364</v>
       </c>
       <c r="H34" t="n">
         <v>115.1838140571751</v>
       </c>
       <c r="I34" t="n">
-        <v>77.62710643600128</v>
+        <v>77.6271064360013</v>
       </c>
       <c r="J34" t="n">
-        <v>181.3293059491641</v>
+        <v>170.0273586216337</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642676</v>
+        <v>326.9177799555314</v>
       </c>
       <c r="L34" t="n">
-        <v>702.0571454702575</v>
+        <v>702.0571454702548</v>
       </c>
       <c r="M34" t="n">
-        <v>928.0691938356825</v>
+        <v>928.0691938356799</v>
       </c>
       <c r="N34" t="n">
-        <v>1328.057137607774</v>
+        <v>1328.057137607772</v>
       </c>
       <c r="O34" t="n">
-        <v>1685.966303594415</v>
+        <v>1685.966303594413</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.153371094302</v>
+        <v>1977.153371094299</v>
       </c>
       <c r="Q34" t="n">
-        <v>2113.343234313043</v>
+        <v>2113.343234313041</v>
       </c>
       <c r="R34" t="n">
-        <v>2083.281746631052</v>
+        <v>2083.28174663105</v>
       </c>
       <c r="S34" t="n">
-        <v>1951.364832018359</v>
+        <v>1951.364832018357</v>
       </c>
       <c r="T34" t="n">
-        <v>1789.367186148366</v>
+        <v>1789.367186148364</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.03328883449</v>
+        <v>1560.033288834489</v>
       </c>
       <c r="V34" t="n">
-        <v>1365.117770189084</v>
+        <v>1365.117770189083</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.469569712604</v>
+        <v>1135.469569712603</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750679</v>
+        <v>967.2489883750669</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920187</v>
+        <v>806.2253787920178</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6932,28 +6932,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7090,31 +7090,31 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962284</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>358.9027651347972</v>
       </c>
       <c r="L37" t="n">
-        <v>409.2396941488535</v>
+        <v>611.3204820829783</v>
       </c>
       <c r="M37" t="n">
-        <v>673.3800484738751</v>
+        <v>875.4608364079999</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295464</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.02298077356</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552143</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7169,25 +7169,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296686</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064548</v>
@@ -7272,31 +7272,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7330,28 +7330,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8840378413029</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>358.9027651347972</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L40" t="n">
-        <v>514.6126090571544</v>
+        <v>429.0634411854743</v>
       </c>
       <c r="M40" t="n">
-        <v>682.0450903563521</v>
+        <v>693.2037955104959</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120234</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
         <v>1489.975538818984</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
@@ -7564,28 +7564,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970703</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K43" t="n">
-        <v>253.5298502264957</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L43" t="n">
-        <v>505.9475671746768</v>
+        <v>505.9475671746774</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996985</v>
+        <v>673.3800484738751</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.10463155537</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O43" t="n">
         <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936507</v>
@@ -7603,16 +7603,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103803</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070896</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464956</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7649,7 +7649,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,7 +7658,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
@@ -7667,7 +7667,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7676,13 +7676,13 @@
         <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746125</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049855</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,10 +7725,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170913</v>
+        <v>402.2593958170924</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463028</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159863</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919195</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218339</v>
@@ -7804,52 +7804,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954469</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889413</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371226</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621444</v>
+        <v>789.9116685363199</v>
       </c>
       <c r="N46" t="n">
-        <v>1154.636251617816</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836006</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460441</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818981</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818981</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219651</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304648</v>
+        <v>927.4214224304667</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673477</v>
+        <v>736.6756869673494</v>
       </c>
       <c r="X46" t="n">
-        <v>607.357570643174</v>
+        <v>607.3575706431754</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734875</v>
+        <v>485.2364260734887</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>87.29408341088808</v>
       </c>
       <c r="N28" t="n">
-        <v>53.65784208816419</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>16.8466885577424</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>10.15474449276016</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,13 +10504,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>22.22013291107643</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>44.31482678525805</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>344.2204013002515</v>
       </c>
       <c r="C11" t="n">
-        <v>223.236053211935</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.4169297090327</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>368.3626053784824</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.4997132667624</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>331.2176603152401</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.7244982928246</v>
+        <v>58.677988698998</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.7333807353989</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>14.83215833673488</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.6131923784187</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>107.1379958601996</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.87104721483891</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.64980006592836</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.0712129888659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>86.72878874179665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574542</v>
+        <v>316.1696012574539</v>
       </c>
       <c r="E14" t="n">
-        <v>70.69225106489048</v>
+        <v>343.4169297090327</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784827</v>
+        <v>368.3626053784824</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.72896909311309</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>106.9076076597022</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.1379958601996</v>
       </c>
       <c r="I16" t="n">
-        <v>60.8710472148392</v>
+        <v>41.45664259041765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.95214767987297</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>247.7038973596179</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.879449215741381</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.5510378853864</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>107.2171844764371</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>167.3338534089494</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>274.5510378853866</v>
       </c>
       <c r="G20" t="n">
-        <v>274.5510378853866</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920716.7821308115</v>
+        <v>920716.7821308112</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.169358519</v>
+        <v>409638.1693585192</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585191</v>
+        <v>409638.1693585192</v>
       </c>
       <c r="D2" t="n">
-        <v>409670.148229466</v>
+        <v>409670.1482294659</v>
       </c>
       <c r="E2" t="n">
-        <v>362431.2507882065</v>
+        <v>362431.2507882061</v>
       </c>
       <c r="F2" t="n">
-        <v>362431.2507882064</v>
+        <v>362431.2507882062</v>
       </c>
       <c r="G2" t="n">
+        <v>399593.7536243037</v>
+      </c>
+      <c r="H2" t="n">
         <v>399593.7536243038</v>
       </c>
-      <c r="H2" t="n">
-        <v>399593.7536243037</v>
-      </c>
       <c r="I2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="J2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>410520.8849321412</v>
+      </c>
+      <c r="L2" t="n">
+        <v>410520.8849321412</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321418</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410520.8849321412</v>
-      </c>
-      <c r="K2" t="n">
-        <v>410520.8849321415</v>
-      </c>
-      <c r="L2" t="n">
-        <v>410520.8849321414</v>
-      </c>
-      <c r="M2" t="n">
-        <v>410520.8849321419</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171169.7048931386</v>
+        <v>171169.7048931385</v>
       </c>
       <c r="E3" t="n">
-        <v>928626.9828614041</v>
+        <v>928626.9828614035</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190083</v>
+        <v>47337.02389190082</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60307.6072653087</v>
+        <v>60307.60726530911</v>
       </c>
       <c r="J3" t="n">
-        <v>36352.13055698652</v>
+        <v>36352.13055698658</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190092</v>
+        <v>47337.02389190087</v>
       </c>
       <c r="M3" t="n">
-        <v>186300.8813297683</v>
+        <v>186300.881329768</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>397952.382342463</v>
       </c>
       <c r="E4" t="n">
-        <v>58911.2429280572</v>
+        <v>58911.24292805734</v>
       </c>
       <c r="F4" t="n">
-        <v>58911.24292805697</v>
+        <v>58911.24292805733</v>
       </c>
       <c r="G4" t="n">
-        <v>100421.2759989387</v>
+        <v>100421.2759989388</v>
       </c>
       <c r="H4" t="n">
-        <v>100421.2759989387</v>
+        <v>100421.2759989388</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="J4" t="n">
-        <v>95033.13778715173</v>
+        <v>95033.13778715182</v>
       </c>
       <c r="K4" t="n">
         <v>95033.13778715188</v>
       </c>
       <c r="L4" t="n">
-        <v>95033.13778715185</v>
+        <v>95033.13778715191</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.137826577</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>93774.13782657702</v>
+      </c>
+      <c r="P4" t="n">
         <v>93774.137826577</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93774.13782657712</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37984.72116648073</v>
+        <v>37984.72116648072</v>
       </c>
       <c r="E5" t="n">
-        <v>72159.42212422501</v>
+        <v>72159.42212422495</v>
       </c>
       <c r="F5" t="n">
-        <v>72159.42212422499</v>
+        <v>72159.42212422495</v>
       </c>
       <c r="G5" t="n">
-        <v>77133.89245118524</v>
+        <v>77133.89245118521</v>
       </c>
       <c r="H5" t="n">
-        <v>77133.89245118525</v>
+        <v>77133.89245118522</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
         <v>87728.20329125514</v>
@@ -26497,7 +26497,7 @@
         <v>87728.20329125514</v>
       </c>
       <c r="L5" t="n">
-        <v>87728.20329125514</v>
+        <v>87728.20329125515</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26506,7 +26506,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91605.39057321221</v>
+        <v>-91609.80415108014</v>
       </c>
       <c r="C6" t="n">
-        <v>-91605.39057321209</v>
+        <v>-91609.80415108014</v>
       </c>
       <c r="D6" t="n">
-        <v>-197436.6601726163</v>
+        <v>-197440.9138561297</v>
       </c>
       <c r="E6" t="n">
-        <v>-697266.3971254798</v>
+        <v>-697506.8452961993</v>
       </c>
       <c r="F6" t="n">
-        <v>231360.5857359246</v>
+        <v>231120.1375652042</v>
       </c>
       <c r="G6" t="n">
-        <v>174701.5612822791</v>
+        <v>174646.9256257397</v>
       </c>
       <c r="H6" t="n">
-        <v>222038.5851741799</v>
+        <v>221983.9495176406</v>
       </c>
       <c r="I6" t="n">
-        <v>173920.5425340061</v>
+        <v>173920.5425340056</v>
       </c>
       <c r="J6" t="n">
-        <v>191407.4132967479</v>
+        <v>191407.413296748</v>
       </c>
       <c r="K6" t="n">
-        <v>227759.5438537345</v>
+        <v>227759.5438537342</v>
       </c>
       <c r="L6" t="n">
-        <v>180422.5199618335</v>
+        <v>180422.5199618333</v>
       </c>
       <c r="M6" t="n">
-        <v>47927.26846954669</v>
+        <v>47927.26846954698</v>
       </c>
       <c r="N6" t="n">
         <v>234228.149799315</v>
       </c>
       <c r="O6" t="n">
-        <v>234228.149799315</v>
+        <v>234228.1497993149</v>
       </c>
       <c r="P6" t="n">
-        <v>234228.1497993147</v>
+        <v>234228.1497993149</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J2" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K2" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
@@ -26722,10 +26722,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.867943416547</v>
+        <v>199.8679434165468</v>
       </c>
       <c r="E3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="F3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="G3" t="n">
-        <v>1033.864942049762</v>
+        <v>1033.864942049761</v>
       </c>
       <c r="H3" t="n">
         <v>1033.864942049761</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744066</v>
+        <v>762.8845389744057</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8845389744066</v>
+        <v>762.8845389744057</v>
       </c>
       <c r="G4" t="n">
-        <v>762.884538974406</v>
+        <v>762.8845389744057</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8845389744063</v>
+        <v>762.8845389744058</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>970.338830450016</v>
       </c>
       <c r="K4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="L4" t="n">
-        <v>970.3388304500161</v>
+        <v>970.3388304500162</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487623</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487615</v>
+        <v>59.17127986487609</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322885</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>199.867943416547</v>
+        <v>199.8679434165468</v>
       </c>
       <c r="E3" t="n">
-        <v>833.9969986332146</v>
+        <v>833.996998633214</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55.91175854353673</v>
+        <v>55.91175854353719</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>762.8845389744066</v>
+        <v>762.8845389744057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.575057937291363e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.51691642788637</v>
+        <v>68.5169164278866</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9373750477233</v>
+        <v>138.9373750477235</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.9471639266832</v>
+        <v>623.9471639266822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487623</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>762.8845389744066</v>
+        <v>762.8845389744057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,34 +27871,34 @@
         <v>331.2460681438487</v>
       </c>
       <c r="I8" t="n">
-        <v>179.4993714254152</v>
+        <v>179.4993714254153</v>
       </c>
       <c r="J8" t="n">
-        <v>112.8507613606555</v>
+        <v>112.8507613606556</v>
       </c>
       <c r="K8" t="n">
-        <v>117.8830092062968</v>
+        <v>117.8830092062969</v>
       </c>
       <c r="L8" t="n">
-        <v>108.96978992192</v>
+        <v>108.9697899219201</v>
       </c>
       <c r="M8" t="n">
-        <v>89.26055676720944</v>
+        <v>89.26055676720952</v>
       </c>
       <c r="N8" t="n">
-        <v>86.04447339087025</v>
+        <v>86.04447339087037</v>
       </c>
       <c r="O8" t="n">
-        <v>94.71931714500442</v>
+        <v>94.71931714500451</v>
       </c>
       <c r="P8" t="n">
-        <v>115.690241591536</v>
+        <v>115.6902415915361</v>
       </c>
       <c r="Q8" t="n">
         <v>135.5378933935505</v>
       </c>
       <c r="R8" t="n">
-        <v>165.1133581130681</v>
+        <v>165.1133581130682</v>
       </c>
       <c r="S8" t="n">
         <v>190.7105589908501</v>
@@ -27950,31 +27950,31 @@
         <v>108.0834705440131</v>
       </c>
       <c r="I9" t="n">
-        <v>84.72083890735949</v>
+        <v>84.72083890735951</v>
       </c>
       <c r="J9" t="n">
-        <v>86.22106658047954</v>
+        <v>86.22106658047957</v>
       </c>
       <c r="K9" t="n">
-        <v>68.42126847655702</v>
+        <v>68.42126847655706</v>
       </c>
       <c r="L9" t="n">
-        <v>45.21039356443873</v>
+        <v>45.2103935644388</v>
       </c>
       <c r="M9" t="n">
-        <v>33.20600476000024</v>
+        <v>33.20600476000033</v>
       </c>
       <c r="N9" t="n">
-        <v>19.53068211486332</v>
+        <v>19.5306821148634</v>
       </c>
       <c r="O9" t="n">
-        <v>40.31099608107253</v>
+        <v>40.3109960810726</v>
       </c>
       <c r="P9" t="n">
-        <v>51.88147797593759</v>
+        <v>51.88147797593764</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.10482479172734</v>
+        <v>85.10482479172737</v>
       </c>
       <c r="R9" t="n">
         <v>118.9877057846749</v>
@@ -28035,22 +28035,22 @@
         <v>101.5138969156177</v>
       </c>
       <c r="K10" t="n">
-        <v>87.13928576293753</v>
+        <v>87.13928576293756</v>
       </c>
       <c r="L10" t="n">
-        <v>81.3004083036283</v>
+        <v>81.30040830362833</v>
       </c>
       <c r="M10" t="n">
-        <v>82.42868643397361</v>
+        <v>82.42868643397364</v>
       </c>
       <c r="N10" t="n">
-        <v>72.5318216532539</v>
+        <v>72.53182165325394</v>
       </c>
       <c r="O10" t="n">
-        <v>87.51314854626128</v>
+        <v>87.51314854626131</v>
       </c>
       <c r="P10" t="n">
-        <v>94.137133242365</v>
+        <v>94.13713324236502</v>
       </c>
       <c r="Q10" t="n">
         <v>121.3249421735473</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="C11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="D11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="E11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="H11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="I11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="T11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="U11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="V11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="W11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="X11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4.930410365520629</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="I12" t="n">
-        <v>22.95785363122047</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.51344036322894</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>38.51344036322894</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.51344036322894</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>12.87623011145499</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="C13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="D13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="E13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="H13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="K13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="L13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="M13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="P13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="S13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="T13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="U13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="V13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="W13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="X13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.51344036322894</v>
+        <v>38.51344036322905</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,19 +28412,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G15" t="n">
-        <v>38.51344036322873</v>
+        <v>4.930410365520487</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>22.95785363122047</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28460,19 +28460,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>38.51344036322873</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="W15" t="n">
-        <v>38.51344036322873</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.87623011145527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322873</v>
+        <v>38.51344036322905</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I17" t="n">
-        <v>50.24240945634182</v>
+        <v>50.24240945634193</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>92.20312496748559</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.12817172545553</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.609766986073083</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810496</v>
+        <v>89.45287313220373</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L19" t="n">
-        <v>93.67200531720789</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R19" t="n">
-        <v>93.46558804310196</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.24240945634187</v>
+        <v>50.24240945634193</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>76.85503832234014</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.95785363122049</v>
+        <v>22.95785363122053</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.60976698607314</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.24527133626583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810496</v>
+        <v>89.45287313220385</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N22" t="n">
-        <v>93.67200531720863</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="R22" t="n">
-        <v>93.46558804310197</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="24">
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -29220,22 +29220,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>86.41330088048414</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810496</v>
+        <v>86.4133008804823</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M26" t="n">
-        <v>59.17127986487492</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.17127986487602</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487719</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y29" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="C31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="D31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="E31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="F31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="G31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="H31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="I31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="J31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="K31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="L31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="M31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="N31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="O31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="P31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="R31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="S31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="T31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="U31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="V31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="W31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="X31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.17127986487608</v>
+        <v>59.17127986487603</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="C32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="D32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="E32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="F32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="G32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="H32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="I32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="J32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="K32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="L32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487628</v>
       </c>
       <c r="N32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="O32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="P32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="S32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="T32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="U32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="V32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="W32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="X32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="Y32" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.343636975245317e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="C34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="D34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="E34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="F34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="G34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="H34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="I34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="J34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="K34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="L34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="M34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="N34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="O34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="P34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="Q34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="R34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="S34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="T34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="U34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="V34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="W34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="X34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
       <c r="Y34" t="n">
-        <v>59.17127986487601</v>
+        <v>59.1712798648761</v>
       </c>
     </row>
     <row r="35">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30162,22 +30162,22 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>85.08100106221809</v>
       </c>
       <c r="L37" t="n">
-        <v>77.66073332242743</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>97.68472022810495</v>
@@ -30186,10 +30186,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810495</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810495</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>86.41330088048493</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>97.68472022810495</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.6607333224274</v>
       </c>
       <c r="O40" t="n">
         <v>97.68472022810495</v>
@@ -30426,7 +30426,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
         <v>97.68472022810495</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K43" t="n">
-        <v>76.32843350415996</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810496</v>
+        <v>77.66073332242738</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P46" t="n">
-        <v>86.41330088048122</v>
+        <v>77.66073332242686</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034892197650123</v>
+        <v>0.8034892197650116</v>
       </c>
       <c r="H8" t="n">
-        <v>8.228733971918434</v>
+        <v>8.228733971918428</v>
       </c>
       <c r="I8" t="n">
-        <v>30.97651814499066</v>
+        <v>30.97651814499064</v>
       </c>
       <c r="J8" t="n">
-        <v>68.19514316603077</v>
+        <v>68.19514316603072</v>
       </c>
       <c r="K8" t="n">
-        <v>102.2068418386838</v>
+        <v>102.2068418386837</v>
       </c>
       <c r="L8" t="n">
-        <v>126.7966250480673</v>
+        <v>126.7966250480672</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0856764600633</v>
+        <v>141.0856764600632</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3685902057207</v>
+        <v>143.3685902057206</v>
       </c>
       <c r="O8" t="n">
-        <v>135.3788942766823</v>
+        <v>135.3788942766822</v>
       </c>
       <c r="P8" t="n">
-        <v>115.5427541637336</v>
+        <v>115.5427541637335</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.76779648089902</v>
+        <v>86.76779648089897</v>
       </c>
       <c r="R8" t="n">
-        <v>50.47217970106399</v>
+        <v>50.47217970106396</v>
       </c>
       <c r="S8" t="n">
-        <v>18.30951059539523</v>
+        <v>18.30951059539522</v>
       </c>
       <c r="T8" t="n">
-        <v>3.517274059521343</v>
+        <v>3.51727405952134</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06427913758120096</v>
+        <v>0.06427913758120092</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4299046330091765</v>
+        <v>0.4299046330091762</v>
       </c>
       <c r="H9" t="n">
-        <v>4.151973692483363</v>
+        <v>4.15197369248336</v>
       </c>
       <c r="I9" t="n">
-        <v>14.80154109264051</v>
+        <v>14.8015410926405</v>
       </c>
       <c r="J9" t="n">
-        <v>40.61656008618716</v>
+        <v>40.61656008618713</v>
       </c>
       <c r="K9" t="n">
-        <v>69.42017049780198</v>
+        <v>69.42017049780193</v>
       </c>
       <c r="L9" t="n">
-        <v>93.34398621543545</v>
+        <v>93.34398621543538</v>
       </c>
       <c r="M9" t="n">
-        <v>108.9280291620181</v>
+        <v>108.928029162018</v>
       </c>
       <c r="N9" t="n">
-        <v>111.81102996847</v>
+        <v>111.8110299684699</v>
       </c>
       <c r="O9" t="n">
-        <v>102.2852483633719</v>
+        <v>102.2852483633718</v>
       </c>
       <c r="P9" t="n">
-        <v>82.09292943839266</v>
+        <v>82.0929294383926</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.87694929429418</v>
+        <v>54.87694929429414</v>
       </c>
       <c r="R9" t="n">
-        <v>26.69179817928906</v>
+        <v>26.69179817928904</v>
       </c>
       <c r="S9" t="n">
-        <v>7.985290003481847</v>
+        <v>7.985290003481841</v>
       </c>
       <c r="T9" t="n">
-        <v>1.732817358488741</v>
+        <v>1.73281735848874</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02828319954007741</v>
+        <v>0.02828319954007739</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3604176028822977</v>
+        <v>0.3604176028822975</v>
       </c>
       <c r="H10" t="n">
-        <v>3.204440141989886</v>
+        <v>3.204440141989884</v>
       </c>
       <c r="I10" t="n">
-        <v>10.83874027576947</v>
+        <v>10.83874027576946</v>
       </c>
       <c r="J10" t="n">
-        <v>25.48152452377845</v>
+        <v>25.48152452377843</v>
       </c>
       <c r="K10" t="n">
-        <v>41.87397240759785</v>
+        <v>41.87397240759783</v>
       </c>
       <c r="L10" t="n">
-        <v>53.58426797760998</v>
+        <v>53.58426797760995</v>
       </c>
       <c r="M10" t="n">
-        <v>56.49709751363145</v>
+        <v>56.49709751363141</v>
       </c>
       <c r="N10" t="n">
-        <v>55.15372281197929</v>
+        <v>55.15372281197925</v>
       </c>
       <c r="O10" t="n">
-        <v>50.94338990558152</v>
+        <v>50.94338990558148</v>
       </c>
       <c r="P10" t="n">
-        <v>43.59087080678261</v>
+        <v>43.59087080678258</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.18005945589859</v>
+        <v>30.18005945589857</v>
       </c>
       <c r="R10" t="n">
-        <v>16.20568603505313</v>
+        <v>16.20568603505312</v>
       </c>
       <c r="S10" t="n">
-        <v>6.281095861139677</v>
+        <v>6.281095861139673</v>
       </c>
       <c r="T10" t="n">
-        <v>1.539966121406181</v>
+        <v>1.53996612140618</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01965914197539808</v>
+        <v>0.01965914197539807</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.156240973064365</v>
+        <v>4.156240973064362</v>
       </c>
       <c r="H11" t="n">
-        <v>42.56510286539544</v>
+        <v>42.56510286539541</v>
       </c>
       <c r="I11" t="n">
-        <v>160.2334801140641</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J11" t="n">
-        <v>352.755757287622</v>
+        <v>352.7557572876217</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6894376774367</v>
+        <v>528.6894376774363</v>
       </c>
       <c r="L11" t="n">
-        <v>655.8859973568553</v>
+        <v>655.8859973568549</v>
       </c>
       <c r="M11" t="n">
-        <v>729.7995477615887</v>
+        <v>729.7995477615882</v>
       </c>
       <c r="N11" t="n">
-        <v>741.6084674263079</v>
+        <v>741.6084674263074</v>
       </c>
       <c r="O11" t="n">
-        <v>700.279846250399</v>
+        <v>700.2798462503986</v>
       </c>
       <c r="P11" t="n">
-        <v>597.6726472278725</v>
+        <v>597.6726472278721</v>
       </c>
       <c r="Q11" t="n">
-        <v>448.8272673800047</v>
+        <v>448.8272673800045</v>
       </c>
       <c r="R11" t="n">
-        <v>261.0794720242546</v>
+        <v>261.0794720242545</v>
       </c>
       <c r="S11" t="n">
-        <v>94.71034117370431</v>
+        <v>94.71034117370425</v>
       </c>
       <c r="T11" t="n">
-        <v>18.19394485958927</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3324992778451492</v>
+        <v>0.3324992778451489</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22378496969194</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H12" t="n">
-        <v>21.47708115465637</v>
+        <v>21.47708115465636</v>
       </c>
       <c r="I12" t="n">
-        <v>76.56452636877953</v>
+        <v>76.56452636877947</v>
       </c>
       <c r="J12" t="n">
-        <v>210.0989124216407</v>
+        <v>210.0989124216406</v>
       </c>
       <c r="K12" t="n">
-        <v>359.0925053910007</v>
+        <v>359.0925053910005</v>
       </c>
       <c r="L12" t="n">
-        <v>482.8441882657873</v>
+        <v>482.844188265787</v>
       </c>
       <c r="M12" t="n">
-        <v>563.45639341712</v>
+        <v>563.4563934171196</v>
       </c>
       <c r="N12" t="n">
-        <v>578.3694075340454</v>
+        <v>578.3694075340451</v>
       </c>
       <c r="O12" t="n">
-        <v>529.0950142582398</v>
+        <v>529.0950142582394</v>
       </c>
       <c r="P12" t="n">
-        <v>424.6453947826653</v>
+        <v>424.6453947826651</v>
       </c>
       <c r="Q12" t="n">
-        <v>283.8642006926063</v>
+        <v>283.8642006926061</v>
       </c>
       <c r="R12" t="n">
-        <v>138.0697369778909</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S12" t="n">
-        <v>41.30583046774281</v>
+        <v>41.30583046774278</v>
       </c>
       <c r="T12" t="n">
-        <v>8.963413978714438</v>
+        <v>8.963413978714433</v>
       </c>
       <c r="U12" t="n">
         <v>0.1463016427428908</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.864346616811045</v>
+        <v>1.864346616811044</v>
       </c>
       <c r="H13" t="n">
-        <v>16.57573628401094</v>
+        <v>16.57573628401093</v>
       </c>
       <c r="I13" t="n">
-        <v>56.06598734919036</v>
+        <v>56.06598734919032</v>
       </c>
       <c r="J13" t="n">
-        <v>131.8093058085409</v>
+        <v>131.8093058085408</v>
       </c>
       <c r="K13" t="n">
-        <v>216.6031796622287</v>
+        <v>216.6031796622285</v>
       </c>
       <c r="L13" t="n">
-        <v>277.1774961029803</v>
+        <v>277.1774961029802</v>
       </c>
       <c r="M13" t="n">
-        <v>292.244806487935</v>
+        <v>292.2448064879348</v>
       </c>
       <c r="N13" t="n">
-        <v>285.2958781889122</v>
+        <v>285.2958781889121</v>
       </c>
       <c r="O13" t="n">
-        <v>263.5169199834377</v>
+        <v>263.5169199834375</v>
       </c>
       <c r="P13" t="n">
-        <v>225.4842490004922</v>
+        <v>225.484249000492</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.113606249514</v>
+        <v>156.1136062495139</v>
       </c>
       <c r="R13" t="n">
-        <v>83.82780333406753</v>
+        <v>83.82780333406747</v>
       </c>
       <c r="S13" t="n">
-        <v>32.49047694933429</v>
+        <v>32.49047694933427</v>
       </c>
       <c r="T13" t="n">
-        <v>7.965844635465373</v>
+        <v>7.965844635465368</v>
       </c>
       <c r="U13" t="n">
         <v>0.1016916336442389</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.156240973064365</v>
+        <v>4.156240973064362</v>
       </c>
       <c r="H14" t="n">
-        <v>42.56510286539544</v>
+        <v>42.56510286539541</v>
       </c>
       <c r="I14" t="n">
-        <v>160.2334801140641</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J14" t="n">
-        <v>352.755757287622</v>
+        <v>352.7557572876217</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6894376774367</v>
+        <v>528.6894376774363</v>
       </c>
       <c r="L14" t="n">
-        <v>655.8859973568553</v>
+        <v>655.8859973568549</v>
       </c>
       <c r="M14" t="n">
-        <v>729.7995477615887</v>
+        <v>729.7995477615882</v>
       </c>
       <c r="N14" t="n">
-        <v>741.6084674263079</v>
+        <v>741.6084674263074</v>
       </c>
       <c r="O14" t="n">
-        <v>700.279846250399</v>
+        <v>700.2798462503986</v>
       </c>
       <c r="P14" t="n">
-        <v>597.6726472278725</v>
+        <v>597.6726472278721</v>
       </c>
       <c r="Q14" t="n">
-        <v>448.8272673800047</v>
+        <v>448.8272673800045</v>
       </c>
       <c r="R14" t="n">
-        <v>261.0794720242546</v>
+        <v>261.0794720242545</v>
       </c>
       <c r="S14" t="n">
-        <v>94.71034117370431</v>
+        <v>94.71034117370425</v>
       </c>
       <c r="T14" t="n">
-        <v>18.19394485958927</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3324992778451492</v>
+        <v>0.3324992778451489</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22378496969194</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H15" t="n">
-        <v>21.47708115465637</v>
+        <v>21.47708115465636</v>
       </c>
       <c r="I15" t="n">
-        <v>76.56452636877953</v>
+        <v>76.56452636877947</v>
       </c>
       <c r="J15" t="n">
-        <v>210.0989124216407</v>
+        <v>210.0989124216406</v>
       </c>
       <c r="K15" t="n">
-        <v>359.0925053910007</v>
+        <v>359.0925053910005</v>
       </c>
       <c r="L15" t="n">
-        <v>482.8441882657873</v>
+        <v>482.844188265787</v>
       </c>
       <c r="M15" t="n">
-        <v>563.45639341712</v>
+        <v>563.4563934171196</v>
       </c>
       <c r="N15" t="n">
-        <v>578.3694075340454</v>
+        <v>578.3694075340451</v>
       </c>
       <c r="O15" t="n">
-        <v>529.0950142582398</v>
+        <v>529.0950142582394</v>
       </c>
       <c r="P15" t="n">
-        <v>424.6453947826653</v>
+        <v>424.6453947826651</v>
       </c>
       <c r="Q15" t="n">
-        <v>283.8642006926063</v>
+        <v>283.8642006926061</v>
       </c>
       <c r="R15" t="n">
-        <v>138.0697369778909</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S15" t="n">
-        <v>41.30583046774281</v>
+        <v>41.30583046774278</v>
       </c>
       <c r="T15" t="n">
-        <v>8.963413978714438</v>
+        <v>8.963413978714433</v>
       </c>
       <c r="U15" t="n">
         <v>0.1463016427428908</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.864346616811045</v>
+        <v>1.864346616811044</v>
       </c>
       <c r="H16" t="n">
-        <v>16.57573628401094</v>
+        <v>16.57573628401093</v>
       </c>
       <c r="I16" t="n">
-        <v>56.06598734919036</v>
+        <v>56.06598734919032</v>
       </c>
       <c r="J16" t="n">
-        <v>131.8093058085409</v>
+        <v>131.8093058085408</v>
       </c>
       <c r="K16" t="n">
-        <v>216.6031796622287</v>
+        <v>216.6031796622285</v>
       </c>
       <c r="L16" t="n">
-        <v>277.1774961029803</v>
+        <v>277.1774961029802</v>
       </c>
       <c r="M16" t="n">
-        <v>292.244806487935</v>
+        <v>292.2448064879348</v>
       </c>
       <c r="N16" t="n">
-        <v>285.2958781889122</v>
+        <v>285.2958781889121</v>
       </c>
       <c r="O16" t="n">
-        <v>263.5169199834377</v>
+        <v>263.5169199834375</v>
       </c>
       <c r="P16" t="n">
-        <v>225.4842490004922</v>
+        <v>225.484249000492</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.113606249514</v>
+        <v>156.1136062495139</v>
       </c>
       <c r="R16" t="n">
-        <v>83.82780333406753</v>
+        <v>83.82780333406747</v>
       </c>
       <c r="S16" t="n">
-        <v>32.49047694933429</v>
+        <v>32.49047694933427</v>
       </c>
       <c r="T16" t="n">
-        <v>7.965844635465373</v>
+        <v>7.965844635465368</v>
       </c>
       <c r="U16" t="n">
         <v>0.1016916336442389</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.156240973064365</v>
+        <v>4.156240973064362</v>
       </c>
       <c r="H17" t="n">
-        <v>42.56510286539544</v>
+        <v>42.56510286539541</v>
       </c>
       <c r="I17" t="n">
-        <v>160.2334801140641</v>
+        <v>160.233480114064</v>
       </c>
       <c r="J17" t="n">
-        <v>352.755757287622</v>
+        <v>352.7557572876217</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6894376774367</v>
+        <v>528.6894376774363</v>
       </c>
       <c r="L17" t="n">
-        <v>655.8859973568553</v>
+        <v>655.8859973568549</v>
       </c>
       <c r="M17" t="n">
-        <v>729.7995477615887</v>
+        <v>729.7995477615882</v>
       </c>
       <c r="N17" t="n">
-        <v>741.6084674263079</v>
+        <v>741.6084674263074</v>
       </c>
       <c r="O17" t="n">
-        <v>700.279846250399</v>
+        <v>700.2798462503986</v>
       </c>
       <c r="P17" t="n">
-        <v>597.6726472278725</v>
+        <v>597.6726472278721</v>
       </c>
       <c r="Q17" t="n">
-        <v>448.8272673800047</v>
+        <v>448.8272673800045</v>
       </c>
       <c r="R17" t="n">
-        <v>261.0794720242546</v>
+        <v>261.0794720242545</v>
       </c>
       <c r="S17" t="n">
-        <v>94.71034117370431</v>
+        <v>94.71034117370425</v>
       </c>
       <c r="T17" t="n">
-        <v>18.19394485958927</v>
+        <v>18.19394485958926</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3324992778451492</v>
+        <v>0.3324992778451489</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22378496969194</v>
+        <v>2.223784969691939</v>
       </c>
       <c r="H18" t="n">
-        <v>21.47708115465637</v>
+        <v>21.47708115465636</v>
       </c>
       <c r="I18" t="n">
-        <v>76.56452636877953</v>
+        <v>76.56452636877947</v>
       </c>
       <c r="J18" t="n">
-        <v>210.0989124216407</v>
+        <v>210.0989124216406</v>
       </c>
       <c r="K18" t="n">
-        <v>359.0925053910007</v>
+        <v>359.0925053910005</v>
       </c>
       <c r="L18" t="n">
-        <v>482.8441882657873</v>
+        <v>482.844188265787</v>
       </c>
       <c r="M18" t="n">
-        <v>563.45639341712</v>
+        <v>563.4563934171196</v>
       </c>
       <c r="N18" t="n">
-        <v>578.3694075340454</v>
+        <v>578.3694075340451</v>
       </c>
       <c r="O18" t="n">
-        <v>529.0950142582398</v>
+        <v>529.0950142582394</v>
       </c>
       <c r="P18" t="n">
-        <v>424.6453947826653</v>
+        <v>424.6453947826651</v>
       </c>
       <c r="Q18" t="n">
-        <v>283.8642006926063</v>
+        <v>283.8642006926061</v>
       </c>
       <c r="R18" t="n">
-        <v>138.0697369778909</v>
+        <v>138.0697369778908</v>
       </c>
       <c r="S18" t="n">
-        <v>41.30583046774281</v>
+        <v>41.30583046774278</v>
       </c>
       <c r="T18" t="n">
-        <v>8.963413978714438</v>
+        <v>8.963413978714433</v>
       </c>
       <c r="U18" t="n">
         <v>0.1463016427428908</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.864346616811045</v>
+        <v>1.864346616811044</v>
       </c>
       <c r="H19" t="n">
-        <v>16.57573628401094</v>
+        <v>16.57573628401093</v>
       </c>
       <c r="I19" t="n">
-        <v>56.06598734919036</v>
+        <v>56.06598734919032</v>
       </c>
       <c r="J19" t="n">
-        <v>131.8093058085409</v>
+        <v>131.8093058085408</v>
       </c>
       <c r="K19" t="n">
-        <v>216.6031796622287</v>
+        <v>216.6031796622285</v>
       </c>
       <c r="L19" t="n">
-        <v>277.1774961029803</v>
+        <v>277.1774961029802</v>
       </c>
       <c r="M19" t="n">
-        <v>292.244806487935</v>
+        <v>292.2448064879348</v>
       </c>
       <c r="N19" t="n">
-        <v>285.2958781889122</v>
+        <v>285.2958781889121</v>
       </c>
       <c r="O19" t="n">
-        <v>263.5169199834377</v>
+        <v>263.5169199834375</v>
       </c>
       <c r="P19" t="n">
-        <v>225.4842490004922</v>
+        <v>225.484249000492</v>
       </c>
       <c r="Q19" t="n">
-        <v>156.113606249514</v>
+        <v>156.1136062495139</v>
       </c>
       <c r="R19" t="n">
-        <v>83.82780333406753</v>
+        <v>83.82780333406747</v>
       </c>
       <c r="S19" t="n">
-        <v>32.49047694933429</v>
+        <v>32.49047694933427</v>
       </c>
       <c r="T19" t="n">
-        <v>7.965844635465373</v>
+        <v>7.965844635465368</v>
       </c>
       <c r="U19" t="n">
         <v>0.1016916336442389</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.156240973064364</v>
+        <v>4.156240973064362</v>
       </c>
       <c r="H20" t="n">
-        <v>42.56510286539543</v>
+        <v>42.56510286539541</v>
       </c>
       <c r="I20" t="n">
         <v>160.233480114064</v>
       </c>
       <c r="J20" t="n">
-        <v>352.7557572876219</v>
+        <v>352.7557572876217</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6894376774366</v>
+        <v>528.6894376774363</v>
       </c>
       <c r="L20" t="n">
-        <v>655.8859973568552</v>
+        <v>655.8859973568549</v>
       </c>
       <c r="M20" t="n">
-        <v>729.7995477615885</v>
+        <v>729.7995477615882</v>
       </c>
       <c r="N20" t="n">
-        <v>741.6084674263077</v>
+        <v>741.6084674263074</v>
       </c>
       <c r="O20" t="n">
-        <v>700.2798462503989</v>
+        <v>700.2798462503986</v>
       </c>
       <c r="P20" t="n">
-        <v>597.6726472278723</v>
+        <v>597.6726472278721</v>
       </c>
       <c r="Q20" t="n">
-        <v>448.8272673800046</v>
+        <v>448.8272673800045</v>
       </c>
       <c r="R20" t="n">
-        <v>261.0794720242546</v>
+        <v>261.0794720242545</v>
       </c>
       <c r="S20" t="n">
-        <v>94.71034117370429</v>
+        <v>94.71034117370425</v>
       </c>
       <c r="T20" t="n">
         <v>18.19394485958926</v>
       </c>
       <c r="U20" t="n">
-        <v>0.332499277845149</v>
+        <v>0.3324992778451489</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>2.223784969691939</v>
       </c>
       <c r="H21" t="n">
-        <v>21.47708115465637</v>
+        <v>21.47708115465636</v>
       </c>
       <c r="I21" t="n">
-        <v>76.56452636877951</v>
+        <v>76.56452636877947</v>
       </c>
       <c r="J21" t="n">
-        <v>210.0989124216407</v>
+        <v>210.0989124216406</v>
       </c>
       <c r="K21" t="n">
-        <v>359.0925053910006</v>
+        <v>359.0925053910005</v>
       </c>
       <c r="L21" t="n">
-        <v>482.8441882657872</v>
+        <v>482.844188265787</v>
       </c>
       <c r="M21" t="n">
-        <v>563.4563934171199</v>
+        <v>563.4563934171196</v>
       </c>
       <c r="N21" t="n">
-        <v>578.3694075340453</v>
+        <v>578.3694075340451</v>
       </c>
       <c r="O21" t="n">
-        <v>529.0950142582396</v>
+        <v>529.0950142582394</v>
       </c>
       <c r="P21" t="n">
-        <v>424.6453947826652</v>
+        <v>424.6453947826651</v>
       </c>
       <c r="Q21" t="n">
-        <v>283.8642006926062</v>
+        <v>283.8642006926061</v>
       </c>
       <c r="R21" t="n">
         <v>138.0697369778908</v>
       </c>
       <c r="S21" t="n">
-        <v>41.30583046774279</v>
+        <v>41.30583046774278</v>
       </c>
       <c r="T21" t="n">
-        <v>8.963413978714437</v>
+        <v>8.963413978714433</v>
       </c>
       <c r="U21" t="n">
         <v>0.1463016427428908</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864346616811045</v>
+        <v>1.864346616811044</v>
       </c>
       <c r="H22" t="n">
-        <v>16.57573628401094</v>
+        <v>16.57573628401093</v>
       </c>
       <c r="I22" t="n">
-        <v>56.06598734919035</v>
+        <v>56.06598734919032</v>
       </c>
       <c r="J22" t="n">
-        <v>131.8093058085409</v>
+        <v>131.8093058085408</v>
       </c>
       <c r="K22" t="n">
-        <v>216.6031796622286</v>
+        <v>216.6031796622285</v>
       </c>
       <c r="L22" t="n">
-        <v>277.1774961029803</v>
+        <v>277.1774961029802</v>
       </c>
       <c r="M22" t="n">
-        <v>292.2448064879349</v>
+        <v>292.2448064879348</v>
       </c>
       <c r="N22" t="n">
-        <v>285.2958781889122</v>
+        <v>285.2958781889121</v>
       </c>
       <c r="O22" t="n">
-        <v>263.5169199834376</v>
+        <v>263.5169199834375</v>
       </c>
       <c r="P22" t="n">
-        <v>225.4842490004921</v>
+        <v>225.484249000492</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.113606249514</v>
+        <v>156.1136062495139</v>
       </c>
       <c r="R22" t="n">
-        <v>83.82780333406751</v>
+        <v>83.82780333406747</v>
       </c>
       <c r="S22" t="n">
-        <v>32.49047694933429</v>
+        <v>32.49047694933427</v>
       </c>
       <c r="T22" t="n">
-        <v>7.965844635465372</v>
+        <v>7.965844635465368</v>
       </c>
       <c r="U22" t="n">
         <v>0.1016916336442389</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.7098527609357</v>
+        <v>171.7098527609355</v>
       </c>
       <c r="K11" t="n">
-        <v>308.5995866324561</v>
+        <v>308.5995866324558</v>
       </c>
       <c r="L11" t="n">
-        <v>420.1195823868681</v>
+        <v>420.1195823868676</v>
       </c>
       <c r="M11" t="n">
-        <v>499.453314534316</v>
+        <v>499.4533145343155</v>
       </c>
       <c r="N11" t="n">
-        <v>512.195403829717</v>
+        <v>512.1954038297165</v>
       </c>
       <c r="O11" t="n">
-        <v>470.1816348287123</v>
+        <v>470.1816348287118</v>
       </c>
       <c r="P11" t="n">
-        <v>366.439651472603</v>
+        <v>366.4396514726025</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.5215775055553</v>
+        <v>226.521577505555</v>
       </c>
       <c r="R11" t="n">
-        <v>45.49393421012252</v>
+        <v>45.49393421012235</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.26128575497404</v>
+        <v>83.2612857549739</v>
       </c>
       <c r="K12" t="n">
-        <v>221.2510664166417</v>
+        <v>221.2510664166415</v>
       </c>
       <c r="L12" t="n">
-        <v>344.2898084859131</v>
+        <v>344.2898084859128</v>
       </c>
       <c r="M12" t="n">
-        <v>421.3223594951017</v>
+        <v>421.3223594951012</v>
       </c>
       <c r="N12" t="n">
-        <v>447.0276954507121</v>
+        <v>447.0276954507118</v>
       </c>
       <c r="O12" t="n">
-        <v>386.4987698137953</v>
+        <v>386.498769813795</v>
       </c>
       <c r="P12" t="n">
-        <v>290.6709873683351</v>
+        <v>290.6709873683348</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.8824266065848</v>
+        <v>143.8824266065845</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.96356605509706</v>
+        <v>76.96356605509709</v>
       </c>
       <c r="K13" t="n">
         <v>232.8471281995747</v>
       </c>
       <c r="L13" t="n">
-        <v>343.2809617265254</v>
+        <v>343.2809617265253</v>
       </c>
       <c r="M13" t="n">
-        <v>370.3421238130045</v>
+        <v>370.3421238130044</v>
       </c>
       <c r="N13" t="n">
-        <v>367.9414909313698</v>
+        <v>367.9414909313697</v>
       </c>
       <c r="O13" t="n">
-        <v>326.6154882607063</v>
+        <v>326.6154882607062</v>
       </c>
       <c r="P13" t="n">
         <v>261.2762486286146</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.4650033610486</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>171.7098527609357</v>
+        <v>171.7098527609355</v>
       </c>
       <c r="K14" t="n">
-        <v>308.5995866324561</v>
+        <v>308.5995866324558</v>
       </c>
       <c r="L14" t="n">
-        <v>420.1195823868681</v>
+        <v>420.1195823868676</v>
       </c>
       <c r="M14" t="n">
-        <v>499.453314534316</v>
+        <v>499.4533145343155</v>
       </c>
       <c r="N14" t="n">
-        <v>512.195403829717</v>
+        <v>512.1954038297165</v>
       </c>
       <c r="O14" t="n">
-        <v>470.1816348287123</v>
+        <v>470.1816348287118</v>
       </c>
       <c r="P14" t="n">
-        <v>366.439651472603</v>
+        <v>366.4396514726025</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.5215775055553</v>
+        <v>226.521577505555</v>
       </c>
       <c r="R14" t="n">
-        <v>45.49393421012252</v>
+        <v>45.49393421012235</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>83.26128575497404</v>
+        <v>83.2612857549739</v>
       </c>
       <c r="K15" t="n">
-        <v>221.2510664166417</v>
+        <v>221.2510664166415</v>
       </c>
       <c r="L15" t="n">
-        <v>344.2898084859131</v>
+        <v>344.2898084859128</v>
       </c>
       <c r="M15" t="n">
-        <v>421.3223594951017</v>
+        <v>421.3223594951012</v>
       </c>
       <c r="N15" t="n">
-        <v>447.0276954507121</v>
+        <v>447.0276954507118</v>
       </c>
       <c r="O15" t="n">
-        <v>386.4987698137953</v>
+        <v>386.498769813795</v>
       </c>
       <c r="P15" t="n">
-        <v>290.6709873683351</v>
+        <v>290.6709873683348</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.8824266065848</v>
+        <v>143.8824266065845</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>76.96356605509686</v>
+        <v>76.96356605509709</v>
       </c>
       <c r="K16" t="n">
-        <v>232.8471281995745</v>
+        <v>232.8471281995747</v>
       </c>
       <c r="L16" t="n">
-        <v>343.2809617265252</v>
+        <v>343.2809617265253</v>
       </c>
       <c r="M16" t="n">
-        <v>370.3421238130043</v>
+        <v>370.3421238130044</v>
       </c>
       <c r="N16" t="n">
-        <v>367.9414909313696</v>
+        <v>367.9414909313697</v>
       </c>
       <c r="O16" t="n">
-        <v>326.6154882607061</v>
+        <v>326.6154882607062</v>
       </c>
       <c r="P16" t="n">
-        <v>261.2762486286144</v>
+        <v>261.2762486286146</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4650033610483</v>
+        <v>108.4650033610485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.7098527609357</v>
+        <v>171.7098527609355</v>
       </c>
       <c r="K17" t="n">
-        <v>308.5995866324561</v>
+        <v>308.5995866324558</v>
       </c>
       <c r="L17" t="n">
-        <v>420.1195823868681</v>
+        <v>420.1195823868676</v>
       </c>
       <c r="M17" t="n">
-        <v>499.453314534316</v>
+        <v>499.4533145343155</v>
       </c>
       <c r="N17" t="n">
-        <v>512.195403829717</v>
+        <v>512.1954038297165</v>
       </c>
       <c r="O17" t="n">
-        <v>470.1816348287123</v>
+        <v>470.1816348287118</v>
       </c>
       <c r="P17" t="n">
-        <v>366.439651472603</v>
+        <v>366.4396514726025</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.5215775055553</v>
+        <v>226.521577505555</v>
       </c>
       <c r="R17" t="n">
-        <v>45.49393421012252</v>
+        <v>45.49393421012235</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>83.26128575497404</v>
+        <v>83.2612857549739</v>
       </c>
       <c r="K18" t="n">
-        <v>221.2510664166417</v>
+        <v>221.2510664166415</v>
       </c>
       <c r="L18" t="n">
-        <v>344.2898084859131</v>
+        <v>344.2898084859128</v>
       </c>
       <c r="M18" t="n">
-        <v>421.3223594951017</v>
+        <v>421.3223594951012</v>
       </c>
       <c r="N18" t="n">
-        <v>447.0276954507121</v>
+        <v>447.0276954507118</v>
       </c>
       <c r="O18" t="n">
-        <v>386.4987698137953</v>
+        <v>386.498769813795</v>
       </c>
       <c r="P18" t="n">
-        <v>290.6709873683351</v>
+        <v>290.6709873683348</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.8824266065848</v>
+        <v>143.8824266065845</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>102.4986045972498</v>
+        <v>94.26675750134844</v>
       </c>
       <c r="K19" t="n">
         <v>185.2746417197982</v>
       </c>
       <c r="L19" t="n">
-        <v>235.9648251389499</v>
+        <v>239.977540049847</v>
       </c>
       <c r="M19" t="n">
-        <v>153.3190225403299</v>
+        <v>251.0037427684348</v>
       </c>
       <c r="N19" t="n">
         <v>255.295053951784</v>
@@ -36057,13 +36057,13 @@
         <v>222.7451017596998</v>
       </c>
       <c r="P19" t="n">
-        <v>185.4409651794495</v>
+        <v>87.75624495134437</v>
       </c>
       <c r="Q19" t="n">
         <v>102.2933248481731</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.219132185003062</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.7098527609356</v>
+        <v>171.7098527609355</v>
       </c>
       <c r="K20" t="n">
-        <v>308.599586632456</v>
+        <v>308.5995866324558</v>
       </c>
       <c r="L20" t="n">
-        <v>420.119582386868</v>
+        <v>420.1195823868676</v>
       </c>
       <c r="M20" t="n">
-        <v>499.4533145343158</v>
+        <v>499.4533145343155</v>
       </c>
       <c r="N20" t="n">
-        <v>512.1954038297167</v>
+        <v>512.1954038297165</v>
       </c>
       <c r="O20" t="n">
-        <v>470.1816348287122</v>
+        <v>470.1816348287118</v>
       </c>
       <c r="P20" t="n">
-        <v>366.4396514726027</v>
+        <v>366.4396514726025</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.5215775055551</v>
+        <v>226.521577505555</v>
       </c>
       <c r="R20" t="n">
-        <v>45.49393421012246</v>
+        <v>45.49393421012235</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>83.26128575497398</v>
+        <v>83.2612857549739</v>
       </c>
       <c r="K21" t="n">
-        <v>221.2510664166416</v>
+        <v>221.2510664166415</v>
       </c>
       <c r="L21" t="n">
-        <v>344.289808485913</v>
+        <v>344.2898084859128</v>
       </c>
       <c r="M21" t="n">
-        <v>421.3223594951016</v>
+        <v>421.3223594951012</v>
       </c>
       <c r="N21" t="n">
-        <v>447.027695450712</v>
+        <v>447.0276954507118</v>
       </c>
       <c r="O21" t="n">
-        <v>386.4987698137952</v>
+        <v>386.498769813795</v>
       </c>
       <c r="P21" t="n">
-        <v>290.670987368335</v>
+        <v>290.6709873683348</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8824266065847</v>
+        <v>143.8824266065845</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>102.4986045972497</v>
+        <v>94.26675750134855</v>
       </c>
       <c r="K22" t="n">
         <v>185.2746417197982</v>
       </c>
       <c r="L22" t="n">
-        <v>239.977540049847</v>
+        <v>142.2928198217419</v>
       </c>
       <c r="M22" t="n">
         <v>251.0037427684348</v>
       </c>
       <c r="N22" t="n">
-        <v>251.2823390408876</v>
+        <v>255.295053951784</v>
       </c>
       <c r="O22" t="n">
         <v>222.7451017596998</v>
       </c>
       <c r="P22" t="n">
-        <v>87.75624495134448</v>
+        <v>185.4409651794494</v>
       </c>
       <c r="Q22" t="n">
         <v>102.2933248481731</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.219132185003062</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>185.7171940801511</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>243.6959715091259</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q25" t="n">
         <v>13.05128016014217</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>17.59435009195008</v>
+        <v>17.59435009195006</v>
       </c>
       <c r="J26" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335885</v>
       </c>
       <c r="K26" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L26" t="n">
-        <v>514.7613942572082</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M26" t="n">
-        <v>598.0923956951017</v>
+        <v>598.0923956951026</v>
       </c>
       <c r="N26" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777873</v>
       </c>
       <c r="O26" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530951</v>
       </c>
       <c r="P26" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q26" t="n">
         <v>309.9655846685955</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071007</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>104.7496964779423</v>
+        <v>71.1134551552189</v>
       </c>
       <c r="K28" t="n">
         <v>265.2189394091956</v>
       </c>
       <c r="L28" t="n">
-        <v>378.9286520350742</v>
+        <v>378.9286520350741</v>
       </c>
       <c r="M28" t="n">
-        <v>228.2949983489142</v>
+        <v>315.5890817598022</v>
       </c>
       <c r="N28" t="n">
-        <v>285.8683512761185</v>
+        <v>232.2105091879543</v>
       </c>
       <c r="O28" t="n">
         <v>361.5244100875158</v>
@@ -36826,16 +36826,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.5943500919501</v>
+        <v>17.59435009195005</v>
       </c>
       <c r="J29" t="n">
-        <v>249.9582808335886</v>
+        <v>249.9582808335885</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3625664202765</v>
+        <v>396.3625664202764</v>
       </c>
       <c r="L29" t="n">
-        <v>514.7613942572081</v>
+        <v>514.7613942572079</v>
       </c>
       <c r="M29" t="n">
         <v>598.0923956951026</v>
@@ -36844,16 +36844,16 @@
         <v>611.4731152777873</v>
       </c>
       <c r="O29" t="n">
-        <v>567.2242807530952</v>
+        <v>567.2242807530962</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842477</v>
+        <v>457.9332660842476</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7844784071008</v>
+        <v>118.7844784071007</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>104.7496964779423</v>
+        <v>104.7496964779422</v>
       </c>
       <c r="K31" t="n">
         <v>265.2189394091956</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9286520350742</v>
+        <v>378.9286520350741</v>
       </c>
       <c r="M31" t="n">
-        <v>245.1416869066566</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N31" t="n">
-        <v>404.0282260324161</v>
+        <v>242.3652536807144</v>
       </c>
       <c r="O31" t="n">
         <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>159.1217876959454</v>
+        <v>159.1217876959453</v>
       </c>
       <c r="Q31" t="n">
         <v>137.5655184027697</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195002</v>
+        <v>17.59435009195013</v>
       </c>
       <c r="J32" t="n">
-        <v>249.9582808335885</v>
+        <v>249.9582808335886</v>
       </c>
       <c r="K32" t="n">
-        <v>396.3625664202764</v>
+        <v>396.3625664202765</v>
       </c>
       <c r="L32" t="n">
-        <v>514.7613942572079</v>
+        <v>514.7613942572081</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951025</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777873</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O32" t="n">
-        <v>567.2242807530951</v>
+        <v>567.2242807530952</v>
       </c>
       <c r="P32" t="n">
-        <v>457.9332660842476</v>
+        <v>457.9332660842477</v>
       </c>
       <c r="Q32" t="n">
-        <v>309.9655846685954</v>
+        <v>309.9655846685955</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071018</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.7496964779422</v>
+        <v>93.33358806629539</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091955</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7687772787777</v>
+        <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>228.2949983489141</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N34" t="n">
-        <v>404.028226032416</v>
+        <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>361.5244100875157</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099864</v>
+        <v>294.1283510099865</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5655184027696</v>
+        <v>137.5655184027697</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>184.3848942618851</v>
       </c>
       <c r="L37" t="n">
-        <v>234.9434039510711</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848622</v>
@@ -37482,10 +37482,10 @@
         <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057606</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.35547617082779</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
         <v>196.988613427772</v>
@@ -37707,10 +37707,10 @@
         <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>250.6999626455057</v>
       </c>
       <c r="O40" t="n">
         <v>236.9961840848622</v>
@@ -37722,7 +37722,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,25 +37932,25 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038269</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>234.943403951071</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591742</v>
@@ -37959,7 +37959,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38172,31 +38172,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.626895518448</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567488</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511834</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P46" t="n">
-        <v>186.3638087115505</v>
+        <v>177.6112411534961</v>
       </c>
       <c r="Q46" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
